--- a/gutter.xlsx
+++ b/gutter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/resultat-maler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="991" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33140" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>Dag1</t>
   </si>
@@ -272,6 +272,48 @@
   </si>
   <si>
     <t>Tour de Synnfjell Sammenlagt - Gutter 11-16</t>
+  </si>
+  <si>
+    <t>Jonatan Heimdal Korshavn</t>
+  </si>
+  <si>
+    <t>Marius Granvold</t>
+  </si>
+  <si>
+    <t>Magnus Moslett Evensen</t>
+  </si>
+  <si>
+    <t>Martin Jørstad Ringli</t>
+  </si>
+  <si>
+    <t>Eskil Engdal</t>
+  </si>
+  <si>
+    <t>Tobias Gigstad Bergene</t>
+  </si>
+  <si>
+    <t>Brage Sømoen</t>
+  </si>
+  <si>
+    <t>Jakob Lundby</t>
+  </si>
+  <si>
+    <t>Anders Alme Eng</t>
+  </si>
+  <si>
+    <t>Vegard Thon</t>
+  </si>
+  <si>
+    <t>Christian Thon Christensen</t>
+  </si>
+  <si>
+    <t>Per Ingvar Tollehaug</t>
+  </si>
+  <si>
+    <t>Hermann Byfuglien Ulsrud</t>
+  </si>
+  <si>
+    <t>Erland Andersen</t>
   </si>
 </sst>
 </file>
@@ -874,12 +916,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
   </cols>
@@ -965,33 +1008,35 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -999,41 +1044,43 @@
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
@@ -1041,41 +1088,43 @@
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B6" s="25"/>
       <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1083,41 +1132,43 @@
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B7" s="25"/>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="12" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1125,11 +1176,11 @@
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -5185,13 +5236,13 @@
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="31.83203125" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="40" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="40"/>
@@ -5253,15 +5304,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Brage Sømoen</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!B4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!C4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -5277,15 +5328,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Jakob Lundby</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!B5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K3'!A5="", "",'K3'!C5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -5301,15 +5352,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Anders Alme Eng</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!B6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K3'!A6="", "",'K3'!C6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -5325,15 +5376,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Vegard Thon</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!B7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K3'!A7="", "",'K3'!C7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -5349,15 +5400,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Christian Thon Christensen</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!B8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K3'!A8="", "",'K3'!C8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -5373,15 +5424,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Per Ingvar Tollehaug</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!B9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K3'!A9="", "",'K3'!C9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -5397,15 +5448,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Hermann Byfuglien Ulsrud</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!B10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!C10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -5421,15 +5472,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Erland Andersen</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K3'!A11="", "",'K3'!B11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K3'!A11="", "",'K3'!C11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -7644,13 +7695,13 @@
   <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -7712,15 +7763,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="str">
+        <v>Brage Sømoen</v>
+      </c>
+      <c r="B4" s="25">
         <f>IF('K3'!A4="", "",'K3'!E4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!F4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -7736,15 +7787,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="25" t="str">
+        <v>Jakob Lundby</v>
+      </c>
+      <c r="B5" s="25">
         <f>IF('K3'!A5="", "",'K3'!E5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K3'!A5="", "",'K3'!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -7760,15 +7811,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="25" t="str">
+        <v>Anders Alme Eng</v>
+      </c>
+      <c r="B6" s="25">
         <f>IF('K3'!A6="", "",'K3'!E6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K3'!A6="", "",'K3'!F6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -7784,15 +7835,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="25" t="str">
+        <v>Vegard Thon</v>
+      </c>
+      <c r="B7" s="25">
         <f>IF('K3'!A7="", "",'K3'!E7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K3'!A7="", "",'K3'!F7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -7808,15 +7859,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="25" t="str">
+        <v>Christian Thon Christensen</v>
+      </c>
+      <c r="B8" s="25">
         <f>IF('K3'!A8="", "",'K3'!E8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K3'!A8="", "",'K3'!F8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -7832,15 +7883,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="25" t="str">
+        <v>Per Ingvar Tollehaug</v>
+      </c>
+      <c r="B9" s="25">
         <f>IF('K3'!A9="", "",'K3'!E9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K3'!A9="", "",'K3'!F9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -7856,15 +7907,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="25" t="str">
+        <v>Hermann Byfuglien Ulsrud</v>
+      </c>
+      <c r="B10" s="25">
         <f>IF('K3'!A10="", "",'K3'!E10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!F10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -7880,15 +7931,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="25" t="str">
+        <v>Erland Andersen</v>
+      </c>
+      <c r="B11" s="25">
         <f>IF('K3'!A11="", "",'K3'!E11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K3'!A11="", "",'K3'!F11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -10105,13 +10156,13 @@
   <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -10173,15 +10224,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Brage Sømoen</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!H4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!I4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -10197,15 +10248,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Jakob Lundby</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!H5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K3'!A5="", "",'K3'!I5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -10221,15 +10272,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Anders Alme Eng</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!H6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K3'!A6="", "",'K3'!I6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -10245,15 +10296,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Vegard Thon</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!H7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K3'!A7="", "",'K3'!I7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -10269,15 +10320,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Christian Thon Christensen</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!H8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K3'!A8="", "",'K3'!I8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -10293,15 +10344,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Per Ingvar Tollehaug</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!H9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K3'!A9="", "",'K3'!I9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -10317,15 +10368,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Hermann Byfuglien Ulsrud</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!H10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!I10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -10341,15 +10392,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Erland Andersen</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K3'!A11="", "",'K3'!H11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K3'!A11="", "",'K3'!I11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -12564,12 +12615,13 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView zoomScale="174" zoomScaleNormal="174" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="14" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="14"/>
     <col min="4" max="5" width="8.83203125" style="15"/>
@@ -12685,7 +12737,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v/>
+        <v>Vegard Thon</v>
       </c>
       <c r="B4" s="19" t="str">
         <f>IF('K3'!B7="", "",'K3'!B7)</f>
@@ -12697,11 +12749,11 @@
       </c>
       <c r="D4" s="23" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(E4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="23" t="str">
         <f t="shared" ref="E4:E67" si="1">IF(A4="","",IFERROR(RANK(C4,C:C,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F4" s="19" t="str">
         <f>IF('K3'!E7="", "", 'K3'!E7)</f>
@@ -12713,11 +12765,11 @@
       </c>
       <c r="H4" s="23" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I4" s="23" t="str">
         <f t="shared" ref="I4:I67" si="3">IF(A4="","",IFERROR(RANK(G4,G:G,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="19" t="str">
         <f>IF('K3'!H7="", "", 'K3'!H7)</f>
@@ -12729,11 +12781,11 @@
       </c>
       <c r="L4" s="23" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(M4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="23" t="str">
         <f t="shared" ref="M4:M67" si="5">IF(A4="","",IFERROR(RANK(K4,K:K,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N4" s="27" t="str">
         <f>IF('K3'!K7="", "", 'K3'!K7)</f>
@@ -12745,17 +12797,17 @@
       </c>
       <c r="P4" s="22" t="str">
         <f>IF(A4="", "",IFERROR(IF(D4+H4+L4=0,"",D4+H4+L4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q4" s="23" t="str">
         <f t="shared" ref="Q4:Q67" si="7">IF(A4="","", IFERROR(RANK(P4,P:P,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v/>
+        <v>Anders Alme Eng</v>
       </c>
       <c r="B5" s="19" t="str">
         <f>IF('K3'!B6="", "",'K3'!B6)</f>
@@ -12767,11 +12819,11 @@
       </c>
       <c r="D5" s="23" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(E5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F5" s="19" t="str">
         <f>IF('K3'!E6="", "", 'K3'!E6)</f>
@@ -12783,11 +12835,11 @@
       </c>
       <c r="H5" s="23" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="19" t="str">
         <f>IF('K3'!H6="", "", 'K3'!H6)</f>
@@ -12799,11 +12851,11 @@
       </c>
       <c r="L5" s="23" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(M5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N5" s="27" t="str">
         <f>IF('K3'!K6="", "", 'K3'!K6)</f>
@@ -12815,11 +12867,11 @@
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ref="P5:P68" si="8">IF(A5="", "",IFERROR(IF(D5+H5+L5=0,"",D5+H5+L5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q5" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -12895,7 +12947,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
+        <v>Magnus Moslett Evensen</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -12907,11 +12959,11 @@
       </c>
       <c r="D7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -12923,11 +12975,11 @@
       </c>
       <c r="H7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
@@ -12939,11 +12991,11 @@
       </c>
       <c r="L7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N7" s="27" t="str">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
@@ -12955,11 +13007,11 @@
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q7" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -19685,7 +19737,7 @@
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v/>
+        <v>Brage Sømoen</v>
       </c>
       <c r="B104" s="19" t="str">
         <f>IF('K3'!B4="", "",'K3'!B4)</f>
@@ -19697,11 +19749,11 @@
       </c>
       <c r="D104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(E104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E104" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F104" s="19" t="str">
         <f>IF('K3'!E4="", "", 'K3'!E4)</f>
@@ -19713,11 +19765,11 @@
       </c>
       <c r="H104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(I104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I104" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J104" s="19" t="str">
         <f>IF('K3'!H4="", "", 'K3'!H4)</f>
@@ -19729,11 +19781,11 @@
       </c>
       <c r="L104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(M104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M104" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N104" s="27" t="str">
         <f>IF('K3'!K4="", "", 'K3'!K4)</f>
@@ -19745,17 +19797,17 @@
       </c>
       <c r="P104" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q104" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
+        <v>Eskil Engdal</v>
       </c>
       <c r="B105" s="19" t="str">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
@@ -19767,11 +19819,11 @@
       </c>
       <c r="D105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(E105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E105" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F105" s="19" t="str">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
@@ -19783,11 +19835,11 @@
       </c>
       <c r="H105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(I105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I105" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J105" s="19" t="str">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
@@ -19799,11 +19851,11 @@
       </c>
       <c r="L105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(M105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M105" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N105" s="27" t="str">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
@@ -19815,17 +19867,17 @@
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q105" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
+        <v>Jonatan Heimdal Korshavn</v>
       </c>
       <c r="B106" s="19" t="str">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
@@ -19837,11 +19889,11 @@
       </c>
       <c r="D106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(E106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E106" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
@@ -19853,11 +19905,11 @@
       </c>
       <c r="H106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I106" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
@@ -19869,11 +19921,11 @@
       </c>
       <c r="L106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M106" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N106" s="27" t="str">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
@@ -19885,11 +19937,11 @@
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q106" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -26685,7 +26737,7 @@
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
+        <v>Tobias Gigstad Bergene</v>
       </c>
       <c r="B204" s="19" t="str">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
@@ -26697,11 +26749,11 @@
       </c>
       <c r="D204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(E204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E204" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
@@ -26713,11 +26765,11 @@
       </c>
       <c r="H204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(I204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I204" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J204" s="19" t="str">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
@@ -26729,11 +26781,11 @@
       </c>
       <c r="L204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(M204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M204" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N204" s="27" t="str">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
@@ -26745,17 +26797,17 @@
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q204" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v/>
+        <v>Marius Granvold</v>
       </c>
       <c r="B205" s="19" t="str">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
@@ -26767,11 +26819,11 @@
       </c>
       <c r="D205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(E205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E205" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
@@ -26783,11 +26835,11 @@
       </c>
       <c r="H205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(I205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I205" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J205" s="19" t="str">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
@@ -26799,11 +26851,11 @@
       </c>
       <c r="L205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(M205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M205" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N205" s="27" t="str">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
@@ -26815,17 +26867,17 @@
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q205" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
+        <v>Martin Jørstad Ringli</v>
       </c>
       <c r="B206" s="19" t="str">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
@@ -26837,11 +26889,11 @@
       </c>
       <c r="D206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(E206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E206" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
@@ -26853,11 +26905,11 @@
       </c>
       <c r="H206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I206" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
@@ -26869,11 +26921,11 @@
       </c>
       <c r="L206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M206" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N206" s="27" t="str">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
@@ -26885,17 +26937,17 @@
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q206" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v/>
+        <v>Jakob Lundby</v>
       </c>
       <c r="B207" s="19" t="str">
         <f>IF('K3'!B5="", "",'K3'!B5)</f>
@@ -26907,11 +26959,11 @@
       </c>
       <c r="D207" s="23" t="str">
         <f>IF(A207="","",IFERROR(VLOOKUP(E207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E207" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F207" s="19" t="str">
         <f>IF('K3'!E5="", "", 'K3'!E5)</f>
@@ -26923,11 +26975,11 @@
       </c>
       <c r="H207" s="23" t="str">
         <f>IF(A207="","",IFERROR(VLOOKUP(I207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I207" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J207" s="19" t="str">
         <f>IF('K3'!H5="", "", 'K3'!H5)</f>
@@ -26939,11 +26991,11 @@
       </c>
       <c r="L207" s="23" t="str">
         <f>IF(A207="","",IFERROR(VLOOKUP(M207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M207" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N207" s="27" t="str">
         <f>IF('K3'!K5="", "", 'K3'!K5)</f>
@@ -26955,17 +27007,17 @@
       </c>
       <c r="P207" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q207" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v/>
+        <v>Christian Thon Christensen</v>
       </c>
       <c r="B208" s="19" t="str">
         <f>IF('K3'!B8="", "",'K3'!B8)</f>
@@ -26977,11 +27029,11 @@
       </c>
       <c r="D208" s="23" t="str">
         <f>IF(A208="","",IFERROR(VLOOKUP(E208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E208" s="23" t="str">
         <f t="shared" ref="E208:E268" si="37">IF(A208="","",IFERROR(RANK(C208,C:C,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F208" s="19" t="str">
         <f>IF('K3'!E8="", "", 'K3'!E8)</f>
@@ -26993,11 +27045,11 @@
       </c>
       <c r="H208" s="23" t="str">
         <f>IF(A208="","",IFERROR(VLOOKUP(I208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I208" s="23" t="str">
         <f t="shared" ref="I208:I260" si="39">IF(A208="","",IFERROR(RANK(G208,G:G,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J208" s="19" t="str">
         <f>IF('K3'!H8="", "", 'K3'!H8)</f>
@@ -27009,11 +27061,11 @@
       </c>
       <c r="L208" s="23" t="str">
         <f>IF(A208="","",IFERROR(VLOOKUP(M208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M208" s="23" t="str">
         <f t="shared" ref="M208:M260" si="41">IF(A208="","",IFERROR(RANK(K208,K:K,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N208" s="27" t="str">
         <f>IF('K3'!K8="", "", 'K3'!K8)</f>
@@ -27025,17 +27077,17 @@
       </c>
       <c r="P208" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q208" s="23" t="str">
         <f t="shared" ref="Q208:Q260" si="43">IF(A208="","", IFERROR(RANK(P208,P:P,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v/>
+        <v>Per Ingvar Tollehaug</v>
       </c>
       <c r="B209" s="19" t="str">
         <f>IF('K3'!B9="", "",'K3'!B9)</f>
@@ -27047,11 +27099,11 @@
       </c>
       <c r="D209" s="23" t="str">
         <f>IF(A209="","",IFERROR(VLOOKUP(E209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E209" s="23" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F209" s="19" t="str">
         <f>IF('K3'!E9="", "", 'K3'!E9)</f>
@@ -27063,11 +27115,11 @@
       </c>
       <c r="H209" s="23" t="str">
         <f>IF(A209="","",IFERROR(VLOOKUP(I209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I209" s="23" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J209" s="19" t="str">
         <f>IF('K3'!H9="", "", 'K3'!H9)</f>
@@ -27079,11 +27131,11 @@
       </c>
       <c r="L209" s="23" t="str">
         <f>IF(A209="","",IFERROR(VLOOKUP(M209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M209" s="23" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N209" s="27" t="str">
         <f>IF('K3'!K9="", "", 'K3'!K9)</f>
@@ -27095,17 +27147,17 @@
       </c>
       <c r="P209" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q209" s="23" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v/>
+        <v>Hermann Byfuglien Ulsrud</v>
       </c>
       <c r="B210" s="19" t="str">
         <f>IF('K3'!B10="", "",'K3'!B10)</f>
@@ -27117,11 +27169,11 @@
       </c>
       <c r="D210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(E210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E210" s="23" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F210" s="19" t="str">
         <f>IF('K3'!E10="", "", 'K3'!E10)</f>
@@ -27133,11 +27185,11 @@
       </c>
       <c r="H210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(I210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I210" s="23" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J210" s="19" t="str">
         <f>IF('K3'!H10="", "", 'K3'!H10)</f>
@@ -27149,11 +27201,11 @@
       </c>
       <c r="L210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(M210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M210" s="23" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N210" s="27" t="str">
         <f>IF('K3'!K10="", "", 'K3'!K10)</f>
@@ -27165,17 +27217,17 @@
       </c>
       <c r="P210" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q210" s="23" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
-        <v/>
+        <v>Erland Andersen</v>
       </c>
       <c r="B211" s="19" t="str">
         <f>IF('K3'!B11="", "",'K3'!B11)</f>
@@ -27187,11 +27239,11 @@
       </c>
       <c r="D211" s="23" t="str">
         <f>IF(A211="","",IFERROR(VLOOKUP(E211,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E211" s="23" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F211" s="19" t="str">
         <f>IF('K3'!E11="", "", 'K3'!E11)</f>
@@ -27203,11 +27255,11 @@
       </c>
       <c r="H211" s="23" t="str">
         <f>IF(A211="","",IFERROR(VLOOKUP(I211,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I211" s="23" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J211" s="19" t="str">
         <f>IF('K3'!H11="", "", 'K3'!H11)</f>
@@ -27219,11 +27271,11 @@
       </c>
       <c r="L211" s="23" t="str">
         <f>IF(A211="","",IFERROR(VLOOKUP(M211,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M211" s="23" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N211" s="27" t="str">
         <f>IF('K3'!K11="", "", 'K3'!K11)</f>
@@ -27235,11 +27287,11 @@
       </c>
       <c r="P211" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q211" s="23" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
@@ -33711,13 +33763,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="37.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -33779,15 +33831,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
-        <v/>
+        <v>Anders Alme Eng</v>
       </c>
       <c r="B4" s="41" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!Q5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -33803,15 +33855,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
-        <v/>
+        <v>Vegard Thon</v>
       </c>
       <c r="B5" s="41" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!P4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!Q4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -33827,15 +33879,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v/>
+        <v>Magnus Moslett Evensen</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!Q7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -36160,43 +36212,43 @@
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
-        <v/>
+        <v>Brage Sømoen</v>
       </c>
       <c r="B104" s="41" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!P104)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C104" s="37" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!Q104)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v/>
+        <v>Eskil Engdal</v>
       </c>
       <c r="B105" s="41" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C105" s="37" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v/>
+        <v>Jonatan Heimdal Korshavn</v>
       </c>
       <c r="B106" s="41" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C106" s="37" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -37560,99 +37612,99 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
-        <v/>
+        <v>Marius Granvold</v>
       </c>
       <c r="B204" s="41" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C204" s="37" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!Q205)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v/>
+        <v>Martin Jørstad Ringli</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C205" s="37" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!Q206)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
-        <v/>
+        <v>Jakob Lundby</v>
       </c>
       <c r="B206" s="41" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!P207)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C206" s="37" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!Q207)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
-        <v/>
+        <v>Christian Thon Christensen</v>
       </c>
       <c r="B207" s="41" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C207" s="37" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!Q208)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
-        <v/>
+        <v>Per Ingvar Tollehaug</v>
       </c>
       <c r="B208" s="41" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C208" s="37" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!Q209)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
-        <v/>
+        <v>Hermann Byfuglien Ulsrud</v>
       </c>
       <c r="B209" s="41" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!P210)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C209" s="37" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!Q210)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="39" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!A211)</f>
-        <v/>
+        <v>Erland Andersen</v>
       </c>
       <c r="B210" s="41" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!P211)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C210" s="37" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!Q211)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -38946,15 +38998,15 @@
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v/>
+        <v>Tobias Gigstad Bergene</v>
       </c>
       <c r="B303" s="41" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C303" s="37" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!Q204)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -38974,7 +39026,7 @@
   <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="154" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -39750,13 +39802,13 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="23.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
@@ -39843,33 +39895,35 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -39877,41 +39931,43 @@
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
@@ -39919,11 +39975,11 @@
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -44063,13 +44119,13 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="25.5" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
@@ -44156,33 +44212,35 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -44190,41 +44248,43 @@
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
@@ -44232,41 +44292,43 @@
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B6" s="25"/>
       <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44274,41 +44336,43 @@
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="B7" s="25"/>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="12" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44316,41 +44380,43 @@
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="B8" s="25"/>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J8" s="12" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44358,41 +44424,43 @@
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="B9" s="25"/>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G9" s="11" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J9" s="12" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44400,41 +44468,43 @@
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="B10" s="25"/>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G10" s="11" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J10" s="12" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44442,41 +44512,43 @@
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="B11" s="25"/>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G11" s="11" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J11" s="12" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K11" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44484,11 +44556,11 @@
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -48376,13 +48448,13 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="31.83203125" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="40" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="40"/>
@@ -48444,15 +48516,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Magnus Moslett Evensen</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48468,15 +48540,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Jonatan Heimdal Korshavn</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!C5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -48492,15 +48564,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Martin Jørstad Ringli</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!C6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -48516,15 +48588,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Marius Granvold</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!C7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -50835,13 +50907,13 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -50903,15 +50975,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="str">
+        <v>Magnus Moslett Evensen</v>
+      </c>
+      <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -50927,15 +50999,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="25" t="str">
+        <v>Jonatan Heimdal Korshavn</v>
+      </c>
+      <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -50951,15 +51023,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="25" t="str">
+        <v>Martin Jørstad Ringli</v>
+      </c>
+      <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -50975,15 +51047,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="25" t="str">
+        <v>Marius Granvold</v>
+      </c>
+      <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!F7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -53296,13 +53368,13 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -53364,15 +53436,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Magnus Moslett Evensen</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!I4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -53388,15 +53460,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Jonatan Heimdal Korshavn</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!I5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -53412,15 +53484,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Martin Jørstad Ringli</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!I6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -53436,15 +53508,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Marius Granvold</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!I7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -55755,13 +55827,13 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="31.83203125" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="40" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="40"/>
@@ -55823,15 +55895,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Eskil Engdal</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!C4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -55847,15 +55919,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Tobias Gigstad Bergene</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!C5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -58214,13 +58286,13 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -58282,15 +58354,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="str">
+        <v>Eskil Engdal</v>
+      </c>
+      <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!F4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -58306,15 +58378,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="25" t="str">
+        <v>Tobias Gigstad Bergene</v>
+      </c>
+      <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -60675,13 +60747,13 @@
   <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -60743,15 +60815,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Eskil Engdal</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!I4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -60767,15 +60839,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Tobias Gigstad Bergene</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!I5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>

--- a/gutter.xlsx
+++ b/gutter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33140" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="18680" yWindow="460" windowWidth="14840" windowHeight="20460" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
   <si>
     <t>Dag1</t>
   </si>
@@ -274,46 +274,49 @@
     <t>Tour de Synnfjell Sammenlagt - Gutter 11-16</t>
   </si>
   <si>
-    <t>Jonatan Heimdal Korshavn</t>
+    <t>Evensen, Magnus Moslet</t>
   </si>
   <si>
-    <t>Marius Granvold</t>
+    <t>Granvold, Marius</t>
   </si>
   <si>
-    <t>Magnus Moslett Evensen</t>
+    <t>Korshavn, Jonatan Heimdal</t>
   </si>
   <si>
-    <t>Martin Jørstad Ringli</t>
+    <t>Ringli, Martin Jørstad</t>
   </si>
   <si>
-    <t>Eskil Engdal</t>
+    <t>Engdal, Eskil</t>
   </si>
   <si>
-    <t>Tobias Gigstad Bergene</t>
+    <t>Gigstad-Bergene, Tobias</t>
   </si>
   <si>
-    <t>Brage Sømoen</t>
+    <t>Andersen, Erlend</t>
   </si>
   <si>
-    <t>Jakob Lundby</t>
+    <t>Christensen, Christian Thon</t>
   </si>
   <si>
-    <t>Anders Alme Eng</t>
+    <t>Eng, Anders Alme</t>
   </si>
   <si>
-    <t>Vegard Thon</t>
+    <t>Lundby, Jakob</t>
   </si>
   <si>
-    <t>Christian Thon Christensen</t>
+    <t>Sømoen, Brage</t>
   </si>
   <si>
-    <t>Per Ingvar Tollehaug</t>
+    <t>Thon, Vegard</t>
   </si>
   <si>
-    <t>Hermann Byfuglien Ulsrud</t>
+    <t>Tollehaug, Per Ingvar</t>
   </si>
   <si>
-    <t>Erland Andersen</t>
+    <t>Ulsrud, Herman Byfuglien</t>
+  </si>
+  <si>
+    <t>Ragnhildsløkken, Oskar Lunde</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1009,7 +1012,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
@@ -1053,7 +1056,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="str">
@@ -1097,7 +1100,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="10" t="str">
@@ -1141,7 +1144,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="10" t="str">
@@ -5304,7 +5307,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Brage Sømoen</v>
+        <v>Andersen, Erlend</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!B4)</f>
@@ -5328,7 +5331,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Jakob Lundby</v>
+        <v>Christensen, Christian Thon</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!B5)</f>
@@ -5352,7 +5355,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Anders Alme Eng</v>
+        <v>Eng, Anders Alme</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!B6)</f>
@@ -5376,7 +5379,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Vegard Thon</v>
+        <v>Lundby, Jakob</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!B7)</f>
@@ -5400,7 +5403,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Christian Thon Christensen</v>
+        <v>Sømoen, Brage</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!B8)</f>
@@ -5424,7 +5427,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Per Ingvar Tollehaug</v>
+        <v>Thon, Vegard</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!B9)</f>
@@ -5448,7 +5451,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Hermann Byfuglien Ulsrud</v>
+        <v>Tollehaug, Per Ingvar</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!B10)</f>
@@ -5472,7 +5475,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
-        <v>Erland Andersen</v>
+        <v>Ulsrud, Herman Byfuglien</v>
       </c>
       <c r="B11" s="36">
         <f>IF('K3'!A11="", "",'K3'!B11)</f>
@@ -5496,15 +5499,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K3'!A12="", "",'K3'!A12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="36" t="str">
+        <v>Ragnhildsløkken, Oskar Lunde</v>
+      </c>
+      <c r="B12" s="36">
         <f>IF('K3'!A12="", "",'K3'!B12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K3'!A12="", "",'K3'!C12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
@@ -7763,7 +7766,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Brage Sømoen</v>
+        <v>Andersen, Erlend</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K3'!A4="", "",'K3'!E4)</f>
@@ -7787,7 +7790,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Jakob Lundby</v>
+        <v>Christensen, Christian Thon</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K3'!A5="", "",'K3'!E5)</f>
@@ -7811,7 +7814,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Anders Alme Eng</v>
+        <v>Eng, Anders Alme</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K3'!A6="", "",'K3'!E6)</f>
@@ -7835,7 +7838,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Vegard Thon</v>
+        <v>Lundby, Jakob</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K3'!A7="", "",'K3'!E7)</f>
@@ -7859,7 +7862,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Christian Thon Christensen</v>
+        <v>Sømoen, Brage</v>
       </c>
       <c r="B8" s="25">
         <f>IF('K3'!A8="", "",'K3'!E8)</f>
@@ -7883,7 +7886,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Per Ingvar Tollehaug</v>
+        <v>Thon, Vegard</v>
       </c>
       <c r="B9" s="25">
         <f>IF('K3'!A9="", "",'K3'!E9)</f>
@@ -7907,7 +7910,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Hermann Byfuglien Ulsrud</v>
+        <v>Tollehaug, Per Ingvar</v>
       </c>
       <c r="B10" s="25">
         <f>IF('K3'!A10="", "",'K3'!E10)</f>
@@ -7931,7 +7934,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
-        <v>Erland Andersen</v>
+        <v>Ulsrud, Herman Byfuglien</v>
       </c>
       <c r="B11" s="25">
         <f>IF('K3'!A11="", "",'K3'!E11)</f>
@@ -7955,15 +7958,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="str">
         <f>IF('K3'!A12="", "",'K3'!A12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="25" t="str">
+        <v>Ragnhildsløkken, Oskar Lunde</v>
+      </c>
+      <c r="B12" s="25">
         <f>IF('K3'!A12="", "",'K3'!E12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K3'!A12="", "",'K3'!F12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="25"/>
@@ -10224,7 +10227,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Brage Sømoen</v>
+        <v>Andersen, Erlend</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!H4)</f>
@@ -10248,7 +10251,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Jakob Lundby</v>
+        <v>Christensen, Christian Thon</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!H5)</f>
@@ -10272,7 +10275,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Anders Alme Eng</v>
+        <v>Eng, Anders Alme</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!H6)</f>
@@ -10296,7 +10299,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Vegard Thon</v>
+        <v>Lundby, Jakob</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!H7)</f>
@@ -10320,7 +10323,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Christian Thon Christensen</v>
+        <v>Sømoen, Brage</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!H8)</f>
@@ -10344,7 +10347,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Per Ingvar Tollehaug</v>
+        <v>Thon, Vegard</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!H9)</f>
@@ -10368,7 +10371,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Hermann Byfuglien Ulsrud</v>
+        <v>Tollehaug, Per Ingvar</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!H10)</f>
@@ -10392,7 +10395,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
-        <v>Erland Andersen</v>
+        <v>Ulsrud, Herman Byfuglien</v>
       </c>
       <c r="B11" s="36">
         <f>IF('K3'!A11="", "",'K3'!H11)</f>
@@ -10416,15 +10419,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K3'!A12="", "",'K3'!A12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="36" t="str">
+        <v>Ragnhildsløkken, Oskar Lunde</v>
+      </c>
+      <c r="B12" s="36">
         <f>IF('K3'!A12="", "",'K3'!H12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K3'!A12="", "",'K3'!I12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -12737,7 +12740,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Vegard Thon</v>
+        <v>Lundby, Jakob</v>
       </c>
       <c r="B4" s="19" t="str">
         <f>IF('K3'!B7="", "",'K3'!B7)</f>
@@ -12807,7 +12810,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Anders Alme Eng</v>
+        <v>Eng, Anders Alme</v>
       </c>
       <c r="B5" s="19" t="str">
         <f>IF('K3'!B6="", "",'K3'!B6)</f>
@@ -12947,7 +12950,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Magnus Moslett Evensen</v>
+        <v>Evensen, Magnus Moslet</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -19737,7 +19740,7 @@
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Brage Sømoen</v>
+        <v>Andersen, Erlend</v>
       </c>
       <c r="B104" s="19" t="str">
         <f>IF('K3'!B4="", "",'K3'!B4)</f>
@@ -19807,7 +19810,7 @@
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Eskil Engdal</v>
+        <v>Engdal, Eskil</v>
       </c>
       <c r="B105" s="19" t="str">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
@@ -19877,7 +19880,7 @@
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Jonatan Heimdal Korshavn</v>
+        <v>Granvold, Marius</v>
       </c>
       <c r="B106" s="19" t="str">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
@@ -26737,7 +26740,7 @@
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Tobias Gigstad Bergene</v>
+        <v>Gigstad-Bergene, Tobias</v>
       </c>
       <c r="B204" s="19" t="str">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
@@ -26807,7 +26810,7 @@
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Marius Granvold</v>
+        <v>Ringli, Martin Jørstad</v>
       </c>
       <c r="B205" s="19" t="str">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
@@ -26877,7 +26880,7 @@
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Martin Jørstad Ringli</v>
+        <v>Korshavn, Jonatan Heimdal</v>
       </c>
       <c r="B206" s="19" t="str">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
@@ -26947,7 +26950,7 @@
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Jakob Lundby</v>
+        <v>Christensen, Christian Thon</v>
       </c>
       <c r="B207" s="19" t="str">
         <f>IF('K3'!B5="", "",'K3'!B5)</f>
@@ -27017,7 +27020,7 @@
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Christian Thon Christensen</v>
+        <v>Sømoen, Brage</v>
       </c>
       <c r="B208" s="19" t="str">
         <f>IF('K3'!B8="", "",'K3'!B8)</f>
@@ -27087,7 +27090,7 @@
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Per Ingvar Tollehaug</v>
+        <v>Thon, Vegard</v>
       </c>
       <c r="B209" s="19" t="str">
         <f>IF('K3'!B9="", "",'K3'!B9)</f>
@@ -27157,7 +27160,7 @@
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Hermann Byfuglien Ulsrud</v>
+        <v>Tollehaug, Per Ingvar</v>
       </c>
       <c r="B210" s="19" t="str">
         <f>IF('K3'!B10="", "",'K3'!B10)</f>
@@ -27227,7 +27230,7 @@
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="15" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
-        <v>Erland Andersen</v>
+        <v>Ulsrud, Herman Byfuglien</v>
       </c>
       <c r="B211" s="19" t="str">
         <f>IF('K3'!B11="", "",'K3'!B11)</f>
@@ -27297,7 +27300,7 @@
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="str">
         <f>IF('K3'!A12="", "",'K3'!A12)</f>
-        <v/>
+        <v>Ragnhildsløkken, Oskar Lunde</v>
       </c>
       <c r="B212" s="19" t="str">
         <f>IF('K3'!B12="", "",'K3'!B12)</f>
@@ -27309,11 +27312,11 @@
       </c>
       <c r="D212" s="23" t="str">
         <f>IF(A212="","",IFERROR(VLOOKUP(E212,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E212" s="23" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F212" s="19" t="str">
         <f>IF('K3'!E12="", "", 'K3'!E12)</f>
@@ -27325,11 +27328,11 @@
       </c>
       <c r="H212" s="23" t="str">
         <f>IF(A212="","",IFERROR(VLOOKUP(I212,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I212" s="23" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J212" s="19" t="str">
         <f>IF('K3'!H12="", "", 'K3'!H12)</f>
@@ -27341,11 +27344,11 @@
       </c>
       <c r="L212" s="23" t="str">
         <f>IF(A212="","",IFERROR(VLOOKUP(M212,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M212" s="23" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N212" s="27" t="str">
         <f>IF('K3'!K12="", "", 'K3'!K12)</f>
@@ -27357,11 +27360,11 @@
       </c>
       <c r="P212" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q212" s="23" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
@@ -33831,7 +33834,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
-        <v>Anders Alme Eng</v>
+        <v>Eng, Anders Alme</v>
       </c>
       <c r="B4" s="41" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
@@ -33855,7 +33858,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
-        <v>Vegard Thon</v>
+        <v>Lundby, Jakob</v>
       </c>
       <c r="B5" s="41" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!P4)</f>
@@ -33879,7 +33882,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v>Magnus Moslett Evensen</v>
+        <v>Evensen, Magnus Moslet</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
@@ -36212,7 +36215,7 @@
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
-        <v>Brage Sømoen</v>
+        <v>Andersen, Erlend</v>
       </c>
       <c r="B104" s="41" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!P104)</f>
@@ -36226,7 +36229,7 @@
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v>Eskil Engdal</v>
+        <v>Engdal, Eskil</v>
       </c>
       <c r="B105" s="41" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
@@ -36240,7 +36243,7 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v>Jonatan Heimdal Korshavn</v>
+        <v>Granvold, Marius</v>
       </c>
       <c r="B106" s="41" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
@@ -37612,7 +37615,7 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
-        <v>Marius Granvold</v>
+        <v>Ringli, Martin Jørstad</v>
       </c>
       <c r="B204" s="41" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
@@ -37626,7 +37629,7 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v>Martin Jørstad Ringli</v>
+        <v>Korshavn, Jonatan Heimdal</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
@@ -37640,7 +37643,7 @@
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
-        <v>Jakob Lundby</v>
+        <v>Christensen, Christian Thon</v>
       </c>
       <c r="B206" s="41" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!P207)</f>
@@ -37654,7 +37657,7 @@
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
-        <v>Christian Thon Christensen</v>
+        <v>Sømoen, Brage</v>
       </c>
       <c r="B207" s="41" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
@@ -37668,7 +37671,7 @@
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
-        <v>Per Ingvar Tollehaug</v>
+        <v>Thon, Vegard</v>
       </c>
       <c r="B208" s="41" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
@@ -37682,7 +37685,7 @@
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
-        <v>Hermann Byfuglien Ulsrud</v>
+        <v>Tollehaug, Per Ingvar</v>
       </c>
       <c r="B209" s="41" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!P210)</f>
@@ -37696,7 +37699,7 @@
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="39" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!A211)</f>
-        <v>Erland Andersen</v>
+        <v>Ulsrud, Herman Byfuglien</v>
       </c>
       <c r="B210" s="41" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!P211)</f>
@@ -37710,15 +37713,15 @@
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="39" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!A212)</f>
-        <v/>
+        <v>Ragnhildsløkken, Oskar Lunde</v>
       </c>
       <c r="B211" s="41" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!P212)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C211" s="37" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!Q212)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -38998,7 +39001,7 @@
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v>Tobias Gigstad Bergene</v>
+        <v>Gigstad-Bergene, Tobias</v>
       </c>
       <c r="B303" s="41" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
@@ -44119,8 +44122,8 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44564,33 +44567,35 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="B12" s="25"/>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="11" t="str">
         <f>IF(A12="","", IFERROR(VLOOKUP(C12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G12" s="11" t="str">
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J12" s="12" t="str">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K12" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44598,11 +44603,11 @@
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -48516,7 +48521,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Magnus Moslett Evensen</v>
+        <v>Evensen, Magnus Moslet</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
@@ -48540,7 +48545,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Jonatan Heimdal Korshavn</v>
+        <v>Granvold, Marius</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
@@ -48564,7 +48569,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Martin Jørstad Ringli</v>
+        <v>Korshavn, Jonatan Heimdal</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
@@ -48588,7 +48593,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Marius Granvold</v>
+        <v>Ringli, Martin Jørstad</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
@@ -50975,7 +50980,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Magnus Moslett Evensen</v>
+        <v>Evensen, Magnus Moslet</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
@@ -50999,7 +51004,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Jonatan Heimdal Korshavn</v>
+        <v>Granvold, Marius</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
@@ -51023,7 +51028,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Martin Jørstad Ringli</v>
+        <v>Korshavn, Jonatan Heimdal</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
@@ -51047,7 +51052,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Marius Granvold</v>
+        <v>Ringli, Martin Jørstad</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
@@ -53436,7 +53441,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Magnus Moslett Evensen</v>
+        <v>Evensen, Magnus Moslet</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
@@ -53460,7 +53465,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Jonatan Heimdal Korshavn</v>
+        <v>Granvold, Marius</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
@@ -53484,7 +53489,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Martin Jørstad Ringli</v>
+        <v>Korshavn, Jonatan Heimdal</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
@@ -53508,7 +53513,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Marius Granvold</v>
+        <v>Ringli, Martin Jørstad</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
@@ -55895,7 +55900,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Eskil Engdal</v>
+        <v>Engdal, Eskil</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
@@ -55919,7 +55924,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Tobias Gigstad Bergene</v>
+        <v>Gigstad-Bergene, Tobias</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
@@ -58354,7 +58359,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Eskil Engdal</v>
+        <v>Engdal, Eskil</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
@@ -58378,7 +58383,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Tobias Gigstad Bergene</v>
+        <v>Gigstad-Bergene, Tobias</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
@@ -60815,7 +60820,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Eskil Engdal</v>
+        <v>Engdal, Eskil</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
@@ -60839,7 +60844,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Tobias Gigstad Bergene</v>
+        <v>Gigstad-Bergene, Tobias</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>

--- a/gutter.xlsx
+++ b/gutter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18680" yWindow="460" windowWidth="14840" windowHeight="20460" tabRatio="991" activeTab="2"/>
+    <workbookView xWindow="2720" yWindow="460" windowWidth="30780" windowHeight="20460" tabRatio="991" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
   <si>
     <t>Dag1</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Granvold, Marius</t>
   </si>
   <si>
-    <t>Korshavn, Jonatan Heimdal</t>
-  </si>
-  <si>
     <t>Ringli, Martin Jørstad</t>
   </si>
   <si>
@@ -317,6 +314,21 @@
   </si>
   <si>
     <t>Ragnhildsløkken, Oskar Lunde</t>
+  </si>
+  <si>
+    <t>Koll, Kristoffer</t>
+  </si>
+  <si>
+    <t>Evensen, Sindre Østlien</t>
+  </si>
+  <si>
+    <t>Korshavn, Jonathan Heimdal</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>Dokken, Hans Kristian</t>
   </si>
 </sst>
 </file>
@@ -920,7 +932,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,14 +1026,16 @@
       <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>2.3842592592592591E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -1041,9 +1055,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>2.3842592592592591E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1058,14 +1072,16 @@
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>2.685185185185185E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -1085,9 +1101,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>2.685185185185185E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1100,16 +1116,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+        <v>51</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -1129,9 +1147,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1144,16 +1162,18 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+        <v>52</v>
+      </c>
+      <c r="B7" s="25">
+        <v>2.1759259259259258E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -1173,9 +1193,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.1759259259259258E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5311,11 +5331,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>1.7824074074074072E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K3'!A4="", "",'K3'!C4)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -5335,11 +5355,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K3'!A5="", "",'K3'!C5)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -5359,11 +5379,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>1.9444444444444442E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K3'!A6="", "",'K3'!C6)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -5383,11 +5403,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K3'!A7="", "",'K3'!C7)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -5407,11 +5427,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>1.8171296296296297E-3</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K3'!A8="", "",'K3'!C8)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -5431,11 +5451,11 @@
       </c>
       <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>1.6435185185185183E-3</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K3'!A9="", "",'K3'!C9)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -5455,11 +5475,11 @@
       </c>
       <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>1.8402777777777777E-3</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K3'!A10="", "",'K3'!C10)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -5479,11 +5499,11 @@
       </c>
       <c r="B11" s="36">
         <f>IF('K3'!A11="", "",'K3'!B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>1.8055555555555557E-3</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K3'!A11="", "",'K3'!C11)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -5501,9 +5521,9 @@
         <f>IF('K3'!A12="", "",'K3'!A12)</f>
         <v>Ragnhildsløkken, Oskar Lunde</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="36" t="str">
         <f>IF('K3'!A12="", "",'K3'!B12)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K3'!A12="", "",'K3'!C12)</f>
@@ -5523,15 +5543,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K3'!A13="", "",'K3'!A13)</f>
-        <v/>
-      </c>
-      <c r="B13" s="36" t="str">
+        <v>Dokken, Hans Kristian</v>
+      </c>
+      <c r="B13" s="36">
         <f>IF('K3'!A13="", "",'K3'!B13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="37" t="str">
+        <v>2.1990740740740742E-3</v>
+      </c>
+      <c r="C13" s="37">
         <f>IF('K3'!A13="", "",'K3'!C13)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="36"/>
@@ -7982,15 +8002,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="str">
         <f>IF('K3'!A13="", "",'K3'!A13)</f>
-        <v/>
-      </c>
-      <c r="B13" s="25" t="str">
+        <v>Dokken, Hans Kristian</v>
+      </c>
+      <c r="B13" s="25">
         <f>IF('K3'!A13="", "",'K3'!E13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K3'!A13="", "",'K3'!F13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="25"/>
@@ -10443,15 +10463,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K3'!A13="", "",'K3'!A13)</f>
-        <v/>
-      </c>
-      <c r="B13" s="36" t="str">
+        <v>Dokken, Hans Kristian</v>
+      </c>
+      <c r="B13" s="36">
         <f>IF('K3'!A13="", "",'K3'!H13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K3'!A13="", "",'K3'!I13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="25"/>
@@ -12618,7 +12638,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12742,21 +12762,21 @@
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
         <v>Lundby, Jakob</v>
       </c>
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="19">
         <f>IF('K3'!B7="", "",'K3'!B7)</f>
-        <v/>
-      </c>
-      <c r="C4" s="20" t="str">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C67" si="0">IF(A4="","",B4)</f>
-        <v/>
-      </c>
-      <c r="D4" s="23" t="str">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="D4" s="23">
         <f>IF(A4="","",IFERROR(VLOOKUP(E4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E4" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="E4" s="23">
         <f t="shared" ref="E4:E67" si="1">IF(A4="","",IFERROR(RANK(C4,C:C,1),"-"))</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="F4" s="19" t="str">
         <f>IF('K3'!E7="", "", 'K3'!E7)</f>
@@ -12790,13 +12810,13 @@
         <f t="shared" ref="M4:M67" si="5">IF(A4="","",IFERROR(RANK(K4,K:K,1),"-"))</f>
         <v>-</v>
       </c>
-      <c r="N4" s="27" t="str">
+      <c r="N4" s="27">
         <f>IF('K3'!K7="", "", 'K3'!K7)</f>
-        <v/>
-      </c>
-      <c r="O4" s="28" t="str">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="O4" s="28">
         <f t="shared" ref="O4:O67" si="6">IF(A4="","",N4)</f>
-        <v/>
+        <v>1.689814814814815E-3</v>
       </c>
       <c r="P4" s="22" t="str">
         <f>IF(A4="", "",IFERROR(IF(D4+H4+L4=0,"",D4+H4+L4),"-"))</f>
@@ -12812,21 +12832,21 @@
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
         <v>Eng, Anders Alme</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="19">
         <f>IF('K3'!B6="", "",'K3'!B6)</f>
-        <v/>
-      </c>
-      <c r="C5" s="20" t="str">
+        <v>1.9444444444444442E-3</v>
+      </c>
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D5" s="23" t="str">
+        <v>1.9444444444444442E-3</v>
+      </c>
+      <c r="D5" s="23">
         <f>IF(A5="","",IFERROR(VLOOKUP(E5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E5" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="E5" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="F5" s="19" t="str">
         <f>IF('K3'!E6="", "", 'K3'!E6)</f>
@@ -12860,13 +12880,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N5" s="27" t="str">
+      <c r="N5" s="27">
         <f>IF('K3'!K6="", "", 'K3'!K6)</f>
-        <v/>
-      </c>
-      <c r="O5" s="28" t="str">
+        <v>1.9444444444444442E-3</v>
+      </c>
+      <c r="O5" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1.9444444444444442E-3</v>
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ref="P5:P68" si="8">IF(A5="", "",IFERROR(IF(D5+H5+L5=0,"",D5+H5+L5),"-"))</f>
@@ -12880,23 +12900,23 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v/>
-      </c>
-      <c r="B6" s="19" t="str">
+        <v>Ringli, Martin Jørstad</v>
+      </c>
+      <c r="B6" s="19">
         <f>IF('K2'!B7="", "",'K2'!B7)</f>
-        <v/>
-      </c>
-      <c r="C6" s="20" t="str">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="23" t="str">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="D6" s="23">
         <f>IF(A6="","",IFERROR(VLOOKUP(E6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E6" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="E6" s="23">
         <f t="shared" si="1"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="F6" s="19" t="str">
         <f>IF('K2'!E7="", "", 'K2'!E7)</f>
@@ -12908,11 +12928,11 @@
       </c>
       <c r="H6" s="23" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="19" t="str">
         <f>IF('K2'!H7="", "", 'K2'!H7)</f>
@@ -12924,27 +12944,27 @@
       </c>
       <c r="L6" s="23" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(M6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N6" s="27" t="str">
+        <v>-</v>
+      </c>
+      <c r="N6" s="27">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
-        <v/>
-      </c>
-      <c r="O6" s="28" t="str">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="O6" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1.8750000000000001E-3</v>
       </c>
       <c r="P6" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q6" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -12952,21 +12972,21 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Evensen, Magnus Moslet</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="19">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="20" t="str">
+        <v>2.3842592592592591E-3</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="23" t="str">
+        <v>2.3842592592592591E-3</v>
+      </c>
+      <c r="D7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="23" t="str">
+        <v>16</v>
+      </c>
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>15</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -13000,13 +13020,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="28" t="str">
+        <v>2.3842592592592591E-3</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2.3842592592592591E-3</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -19742,21 +19762,21 @@
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
         <v>Andersen, Erlend</v>
       </c>
-      <c r="B104" s="19" t="str">
+      <c r="B104" s="19">
         <f>IF('K3'!B4="", "",'K3'!B4)</f>
-        <v/>
-      </c>
-      <c r="C104" s="20" t="str">
+        <v>1.7824074074074072E-3</v>
+      </c>
+      <c r="C104" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D104" s="23" t="str">
+        <v>1.7824074074074072E-3</v>
+      </c>
+      <c r="D104" s="23">
         <f>IF(A104="","",IFERROR(VLOOKUP(E104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E104" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="E104" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="F104" s="19" t="str">
         <f>IF('K3'!E4="", "", 'K3'!E4)</f>
@@ -19790,13 +19810,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N104" s="27" t="str">
+      <c r="N104" s="27">
         <f>IF('K3'!K4="", "", 'K3'!K4)</f>
-        <v/>
-      </c>
-      <c r="O104" s="28" t="str">
+        <v>1.7824074074074072E-3</v>
+      </c>
+      <c r="O104" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1.7824074074074072E-3</v>
       </c>
       <c r="P104" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19812,21 +19832,21 @@
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
         <v>Engdal, Eskil</v>
       </c>
-      <c r="B105" s="19" t="str">
+      <c r="B105" s="19">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
-        <v/>
-      </c>
-      <c r="C105" s="20" t="str">
+        <v>1.7939814814814815E-3</v>
+      </c>
+      <c r="C105" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D105" s="23" t="str">
+        <v>1.7939814814814815E-3</v>
+      </c>
+      <c r="D105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(E105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E105" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="E105" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="F105" s="19" t="str">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
@@ -19860,13 +19880,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N105" s="27" t="str">
+      <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v/>
-      </c>
-      <c r="O105" s="28" t="str">
+        <v>1.7939814814814815E-3</v>
+      </c>
+      <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1.7939814814814815E-3</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19882,21 +19902,21 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Granvold, Marius</v>
       </c>
-      <c r="B106" s="19" t="str">
+      <c r="B106" s="19">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
-        <v/>
-      </c>
-      <c r="C106" s="20" t="str">
+        <v>2.685185185185185E-3</v>
+      </c>
+      <c r="C106" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D106" s="23" t="str">
+        <v>2.685185185185185E-3</v>
+      </c>
+      <c r="D106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(E106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E106" s="23" t="str">
+        <v>14</v>
+      </c>
+      <c r="E106" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>17</v>
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
@@ -19930,13 +19950,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N106" s="27" t="str">
+      <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v/>
-      </c>
-      <c r="O106" s="28" t="str">
+        <v>2.685185185185185E-3</v>
+      </c>
+      <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.685185185185185E-3</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19950,23 +19970,23 @@
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v/>
-      </c>
-      <c r="B107" s="19" t="str">
+        <v>Korshavn, Jonathan Heimdal</v>
+      </c>
+      <c r="B107" s="19">
         <f>IF('K2'!B6="", "",'K2'!B6)</f>
-        <v/>
-      </c>
-      <c r="C107" s="20" t="str">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="C107" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D107" s="23" t="str">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="D107" s="23">
         <f>IF(A107="","",IFERROR(VLOOKUP(E107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E107" s="23" t="str">
+        <v>18</v>
+      </c>
+      <c r="E107" s="23">
         <f t="shared" si="10"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="F107" s="19" t="str">
         <f>IF('K2'!E6="", "", 'K2'!E6)</f>
@@ -19978,11 +19998,11 @@
       </c>
       <c r="H107" s="23" t="str">
         <f>IF(A107="","",IFERROR(VLOOKUP(I107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I107" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J107" s="19" t="str">
         <f>IF('K2'!H6="", "", 'K2'!H6)</f>
@@ -19994,27 +20014,27 @@
       </c>
       <c r="L107" s="23" t="str">
         <f>IF(A107="","",IFERROR(VLOOKUP(M107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M107" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N107" s="27" t="str">
+        <v>-</v>
+      </c>
+      <c r="N107" s="27">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
-        <v/>
-      </c>
-      <c r="O107" s="28" t="str">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="O107" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.3032407407407407E-3</v>
       </c>
       <c r="P107" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q107" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -26742,21 +26762,21 @@
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
         <v>Gigstad-Bergene, Tobias</v>
       </c>
-      <c r="B204" s="19" t="str">
+      <c r="B204" s="19">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
-        <v/>
-      </c>
-      <c r="C204" s="20" t="str">
+        <v>2.1412037037037038E-3</v>
+      </c>
+      <c r="C204" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D204" s="23" t="str">
+        <v>2.1412037037037038E-3</v>
+      </c>
+      <c r="D204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(E204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E204" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="E204" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
@@ -26790,13 +26810,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N204" s="27" t="str">
+      <c r="N204" s="27">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v/>
-      </c>
-      <c r="O204" s="28" t="str">
+        <v>2.1412037037037038E-3</v>
+      </c>
+      <c r="O204" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>2.1412037037037038E-3</v>
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26810,23 +26830,23 @@
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Ringli, Martin Jørstad</v>
-      </c>
-      <c r="B205" s="19" t="str">
+        <v>Evensen, Sindre Østlien</v>
+      </c>
+      <c r="B205" s="19">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
-        <v/>
-      </c>
-      <c r="C205" s="20" t="str">
+        <v>2.1759259259259258E-3</v>
+      </c>
+      <c r="C205" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D205" s="23" t="str">
+        <v>2.1759259259259258E-3</v>
+      </c>
+      <c r="D205" s="23">
         <f>IF(A205="","",IFERROR(VLOOKUP(E205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E205" s="23" t="str">
+        <v>22</v>
+      </c>
+      <c r="E205" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
@@ -26860,13 +26880,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N205" s="27" t="str">
+      <c r="N205" s="27">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v/>
-      </c>
-      <c r="O205" s="28" t="str">
+        <v>2.1759259259259258E-3</v>
+      </c>
+      <c r="O205" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>2.1759259259259258E-3</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26880,23 +26900,23 @@
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Korshavn, Jonatan Heimdal</v>
-      </c>
-      <c r="B206" s="19" t="str">
+        <v>Koll, Kristoffer</v>
+      </c>
+      <c r="B206" s="19">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
-        <v/>
-      </c>
-      <c r="C206" s="20" t="str">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C206" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D206" s="23" t="str">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(E206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E206" s="23" t="str">
+        <v>15</v>
+      </c>
+      <c r="E206" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>16</v>
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
@@ -26930,13 +26950,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N206" s="27" t="str">
+      <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v/>
-      </c>
-      <c r="O206" s="28" t="str">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26952,21 +26972,21 @@
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
         <v>Christensen, Christian Thon</v>
       </c>
-      <c r="B207" s="19" t="str">
+      <c r="B207" s="19">
         <f>IF('K3'!B5="", "",'K3'!B5)</f>
-        <v/>
-      </c>
-      <c r="C207" s="20" t="str">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="C207" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D207" s="23" t="str">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="D207" s="23">
         <f>IF(A207="","",IFERROR(VLOOKUP(E207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E207" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="E207" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="F207" s="19" t="str">
         <f>IF('K3'!E5="", "", 'K3'!E5)</f>
@@ -27000,13 +27020,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N207" s="27" t="str">
+      <c r="N207" s="27">
         <f>IF('K3'!K5="", "", 'K3'!K5)</f>
-        <v/>
-      </c>
-      <c r="O207" s="28" t="str">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="O207" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>1.7476851851851852E-3</v>
       </c>
       <c r="P207" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27022,21 +27042,21 @@
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
         <v>Sømoen, Brage</v>
       </c>
-      <c r="B208" s="19" t="str">
+      <c r="B208" s="19">
         <f>IF('K3'!B8="", "",'K3'!B8)</f>
-        <v/>
-      </c>
-      <c r="C208" s="20" t="str">
+        <v>1.8171296296296297E-3</v>
+      </c>
+      <c r="C208" s="20">
         <f t="shared" ref="C208:C268" si="36">IF(A208="","",B208)</f>
-        <v/>
-      </c>
-      <c r="D208" s="23" t="str">
+        <v>1.8171296296296297E-3</v>
+      </c>
+      <c r="D208" s="23">
         <f>IF(A208="","",IFERROR(VLOOKUP(E208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E208" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="E208" s="23">
         <f t="shared" ref="E208:E268" si="37">IF(A208="","",IFERROR(RANK(C208,C:C,1),"-"))</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="F208" s="19" t="str">
         <f>IF('K3'!E8="", "", 'K3'!E8)</f>
@@ -27070,13 +27090,13 @@
         <f t="shared" ref="M208:M260" si="41">IF(A208="","",IFERROR(RANK(K208,K:K,1),"-"))</f>
         <v>-</v>
       </c>
-      <c r="N208" s="27" t="str">
+      <c r="N208" s="27">
         <f>IF('K3'!K8="", "", 'K3'!K8)</f>
-        <v/>
-      </c>
-      <c r="O208" s="28" t="str">
+        <v>1.8171296296296297E-3</v>
+      </c>
+      <c r="O208" s="28">
         <f t="shared" ref="O208:O260" si="42">IF(A208="","",N208)</f>
-        <v/>
+        <v>1.8171296296296297E-3</v>
       </c>
       <c r="P208" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27092,21 +27112,21 @@
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
         <v>Thon, Vegard</v>
       </c>
-      <c r="B209" s="19" t="str">
+      <c r="B209" s="19">
         <f>IF('K3'!B9="", "",'K3'!B9)</f>
-        <v/>
-      </c>
-      <c r="C209" s="20" t="str">
+        <v>1.6435185185185183E-3</v>
+      </c>
+      <c r="C209" s="20">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="D209" s="23" t="str">
+        <v>1.6435185185185183E-3</v>
+      </c>
+      <c r="D209" s="23">
         <f>IF(A209="","",IFERROR(VLOOKUP(E209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E209" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="E209" s="23">
         <f t="shared" si="37"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="F209" s="19" t="str">
         <f>IF('K3'!E9="", "", 'K3'!E9)</f>
@@ -27140,13 +27160,13 @@
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
-      <c r="N209" s="27" t="str">
+      <c r="N209" s="27">
         <f>IF('K3'!K9="", "", 'K3'!K9)</f>
-        <v/>
-      </c>
-      <c r="O209" s="28" t="str">
+        <v>1.6435185185185183E-3</v>
+      </c>
+      <c r="O209" s="28">
         <f t="shared" si="42"/>
-        <v/>
+        <v>1.6435185185185183E-3</v>
       </c>
       <c r="P209" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27162,21 +27182,21 @@
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
         <v>Tollehaug, Per Ingvar</v>
       </c>
-      <c r="B210" s="19" t="str">
+      <c r="B210" s="19">
         <f>IF('K3'!B10="", "",'K3'!B10)</f>
-        <v/>
-      </c>
-      <c r="C210" s="20" t="str">
+        <v>1.8402777777777777E-3</v>
+      </c>
+      <c r="C210" s="20">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="D210" s="23" t="str">
+        <v>1.8402777777777777E-3</v>
+      </c>
+      <c r="D210" s="23">
         <f>IF(A210="","",IFERROR(VLOOKUP(E210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E210" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="E210" s="23">
         <f t="shared" si="37"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="F210" s="19" t="str">
         <f>IF('K3'!E10="", "", 'K3'!E10)</f>
@@ -27210,13 +27230,13 @@
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
-      <c r="N210" s="27" t="str">
+      <c r="N210" s="27">
         <f>IF('K3'!K10="", "", 'K3'!K10)</f>
-        <v/>
-      </c>
-      <c r="O210" s="28" t="str">
+        <v>1.8402777777777777E-3</v>
+      </c>
+      <c r="O210" s="28">
         <f t="shared" si="42"/>
-        <v/>
+        <v>1.8402777777777777E-3</v>
       </c>
       <c r="P210" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27232,21 +27252,21 @@
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
         <v>Ulsrud, Herman Byfuglien</v>
       </c>
-      <c r="B211" s="19" t="str">
+      <c r="B211" s="19">
         <f>IF('K3'!B11="", "",'K3'!B11)</f>
-        <v/>
-      </c>
-      <c r="C211" s="20" t="str">
+        <v>1.8055555555555557E-3</v>
+      </c>
+      <c r="C211" s="20">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="D211" s="23" t="str">
+        <v>1.8055555555555557E-3</v>
+      </c>
+      <c r="D211" s="23">
         <f>IF(A211="","",IFERROR(VLOOKUP(E211,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E211" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="E211" s="23">
         <f t="shared" si="37"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="F211" s="19" t="str">
         <f>IF('K3'!E11="", "", 'K3'!E11)</f>
@@ -27280,13 +27300,13 @@
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
-      <c r="N211" s="27" t="str">
+      <c r="N211" s="27">
         <f>IF('K3'!K11="", "", 'K3'!K11)</f>
-        <v/>
-      </c>
-      <c r="O211" s="28" t="str">
+        <v>1.8055555555555557E-3</v>
+      </c>
+      <c r="O211" s="28">
         <f t="shared" si="42"/>
-        <v/>
+        <v>1.8055555555555557E-3</v>
       </c>
       <c r="P211" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27304,11 +27324,11 @@
       </c>
       <c r="B212" s="19" t="str">
         <f>IF('K3'!B12="", "",'K3'!B12)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C212" s="20" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D212" s="23" t="str">
         <f>IF(A212="","",IFERROR(VLOOKUP(E212,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27352,11 +27372,11 @@
       </c>
       <c r="N212" s="27" t="str">
         <f>IF('K3'!K12="", "", 'K3'!K12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O212" s="28" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P212" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27370,23 +27390,23 @@
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="15" t="str">
         <f>IF('K3'!A13="", "",'K3'!A13)</f>
-        <v/>
-      </c>
-      <c r="B213" s="19" t="str">
+        <v>Dokken, Hans Kristian</v>
+      </c>
+      <c r="B213" s="19">
         <f>IF('K3'!B13="", "",'K3'!B13)</f>
-        <v/>
-      </c>
-      <c r="C213" s="20" t="str">
+        <v>2.1990740740740742E-3</v>
+      </c>
+      <c r="C213" s="20">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="D213" s="23" t="str">
+        <v>2.1990740740740742E-3</v>
+      </c>
+      <c r="D213" s="23">
         <f>IF(A213="","",IFERROR(VLOOKUP(E213,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E213" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="E213" s="23">
         <f t="shared" si="37"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="F213" s="19" t="str">
         <f>IF('K3'!E13="", "", 'K3'!E13)</f>
@@ -27398,11 +27418,11 @@
       </c>
       <c r="H213" s="23" t="str">
         <f>IF(A213="","",IFERROR(VLOOKUP(I213,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I213" s="23" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J213" s="19" t="str">
         <f>IF('K3'!H13="", "", 'K3'!H13)</f>
@@ -27414,27 +27434,27 @@
       </c>
       <c r="L213" s="23" t="str">
         <f>IF(A213="","",IFERROR(VLOOKUP(M213,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M213" s="23" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N213" s="27" t="str">
+        <v>-</v>
+      </c>
+      <c r="N213" s="27">
         <f>IF('K3'!K13="", "", 'K3'!K13)</f>
-        <v/>
-      </c>
-      <c r="O213" s="28" t="str">
+        <v>2.1990740740740742E-3</v>
+      </c>
+      <c r="O213" s="28">
         <f t="shared" si="42"/>
-        <v/>
+        <v>2.1990740740740742E-3</v>
       </c>
       <c r="P213" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q213" s="23" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
@@ -33906,15 +33926,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
-        <v/>
+        <v>Ringli, Martin Jørstad</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!Q6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -36257,15 +36277,15 @@
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
-        <v/>
+        <v>Korshavn, Jonathan Heimdal</v>
       </c>
       <c r="B107" s="41" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C107" s="37" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!Q107)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -37615,7 +37635,7 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
-        <v>Ringli, Martin Jørstad</v>
+        <v>Evensen, Sindre Østlien</v>
       </c>
       <c r="B204" s="41" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
@@ -37629,7 +37649,7 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v>Korshavn, Jonatan Heimdal</v>
+        <v>Koll, Kristoffer</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
@@ -37727,15 +37747,15 @@
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="39" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!A213)</f>
-        <v/>
+        <v>Dokken, Hans Kristian</v>
       </c>
       <c r="B212" s="41" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!P213)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C212" s="37" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!Q213)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -39806,7 +39826,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39899,16 +39919,18 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+        <v>40</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1.7939814814814815E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -39928,9 +39950,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>1.7939814814814815E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -39943,16 +39965,18 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+        <v>41</v>
+      </c>
+      <c r="B5" s="25">
+        <v>2.1412037037037038E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -39972,9 +39996,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>2.1412037037037038E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -39986,87 +40010,95 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="K6" s="26" t="str">
+        <v>-</v>
+      </c>
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.3032407407407407E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="12" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="K7" s="26" t="str">
+        <v>-</v>
+      </c>
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.8750000000000001E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -44122,8 +44154,8 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44216,16 +44248,18 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+        <v>42</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1.7824074074074072E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -44245,9 +44279,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>1.7824074074074072E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -44260,16 +44294,18 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+        <v>43</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1.7476851851851852E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -44289,9 +44325,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>1.7476851851851852E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -44304,16 +44340,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+        <v>44</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1.9444444444444442E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -44333,9 +44371,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.9444444444444442E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44348,16 +44386,18 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+        <v>45</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -44377,9 +44417,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.689814814814815E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44392,16 +44432,18 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="10" t="str">
+        <v>46</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1.8171296296296297E-3</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D8" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
@@ -44421,9 +44463,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.8171296296296297E-3</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44436,16 +44478,18 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="10" t="str">
+        <v>47</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1.6435185185185183E-3</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D9" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
@@ -44465,9 +44509,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.6435185185185183E-3</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44480,16 +44524,18 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="10" t="str">
+        <v>48</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1.8402777777777777E-3</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D10" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
@@ -44509,9 +44555,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.8402777777777777E-3</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44524,16 +44570,18 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="10" t="str">
+        <v>49</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1.8055555555555557E-3</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D11" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
@@ -44553,9 +44601,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K11" s="26" t="str">
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.8055555555555557E-3</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44568,9 +44616,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="25"/>
+        <v>50</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -44599,7 +44649,7 @@
       </c>
       <c r="K12" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44611,45 +44661,49 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10" t="str">
+      <c r="A13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="25">
+        <v>2.1990740740740742E-3</v>
+      </c>
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="11" t="str">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11">
         <f>IF(A13="","", IFERROR(VLOOKUP(C13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G13" s="11" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(F13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J13" s="12" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="K13" s="26" t="str">
+        <v>-</v>
+      </c>
+      <c r="K13" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.1990740740740742E-3</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -48525,11 +48579,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>2.3842592592592591E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48549,11 +48603,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>2.685185185185185E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!C5)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -48569,15 +48623,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Korshavn, Jonatan Heimdal</v>
+        <v>Koll, Kristoffer</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!C6)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -48593,15 +48647,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Ringli, Martin Jørstad</v>
+        <v>Evensen, Sindre Østlien</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>2.1759259259259258E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K1'!A7="", "",'K1'!C7)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -51028,7 +51082,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Korshavn, Jonatan Heimdal</v>
+        <v>Koll, Kristoffer</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
@@ -51052,7 +51106,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Ringli, Martin Jørstad</v>
+        <v>Evensen, Sindre Østlien</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
@@ -53489,7 +53543,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Korshavn, Jonatan Heimdal</v>
+        <v>Koll, Kristoffer</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
@@ -53513,7 +53567,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Ringli, Martin Jørstad</v>
+        <v>Evensen, Sindre Østlien</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
@@ -55904,11 +55958,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>1.7939814814814815E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!C4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -55928,11 +55982,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>2.1412037037037038E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!C5)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -55948,15 +56002,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Korshavn, Jonathan Heimdal</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!B6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K2'!A6="", "",'K2'!C6)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -55972,15 +56026,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Ringli, Martin Jørstad</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!B7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K2'!A7="", "",'K2'!C7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -58407,15 +58461,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="25" t="str">
+        <v>Korshavn, Jonathan Heimdal</v>
+      </c>
+      <c r="B6" s="25">
         <f>IF('K2'!A6="", "",'K2'!E6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K2'!A6="", "",'K2'!F6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -58431,15 +58485,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="25" t="str">
+        <v>Ringli, Martin Jørstad</v>
+      </c>
+      <c r="B7" s="25">
         <f>IF('K2'!A7="", "",'K2'!E7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K2'!A7="", "",'K2'!F7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -60868,15 +60922,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Korshavn, Jonathan Heimdal</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!H6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K2'!A6="", "",'K2'!I6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -60892,15 +60946,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Ringli, Martin Jørstad</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!H7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K2'!A7="", "",'K2'!I7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>

--- a/gutter.xlsx
+++ b/gutter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="460" windowWidth="30780" windowHeight="20460" tabRatio="991" activeTab="12"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="32180" windowHeight="19660" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>Dag1</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Dokken, Hans Kristian</t>
+  </si>
+  <si>
+    <t>Ragnhildsrud, Ludvig Lunde</t>
   </si>
 </sst>
 </file>
@@ -931,8 +934,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1037,14 +1040,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>4.0648148148148149E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -1057,7 +1062,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>2.3842592592592591E-3</v>
+        <v>4.3032407407407408E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1083,14 +1088,16 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="10" t="str">
+      <c r="E5" s="25">
+        <v>4.5775462962962969E-2</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
@@ -1103,7 +1110,7 @@
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>2.685185185185185E-3</v>
+        <v>4.8460648148148155E-2</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1129,14 +1136,16 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="25">
+        <v>5.0347222222222217E-2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
@@ -1149,7 +1158,7 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>2.5000000000000001E-3</v>
+        <v>5.2847222222222219E-2</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1175,14 +1184,16 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="10" t="str">
+      <c r="E7" s="25">
+        <v>4.116898148148148E-2</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
@@ -1195,7 +1206,7 @@
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>2.1759259259259258E-3</v>
+        <v>4.3344907407407408E-2</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1207,45 +1218,51 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="10" t="str">
+        <v>-</v>
+      </c>
+      <c r="E8" s="25">
+        <v>5.1770833333333328E-2</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>45</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J8" s="12" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -7790,11 +7807,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K3'!A4="", "",'K3'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.4594907407407408E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K3'!A4="", "",'K3'!F4)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -7814,11 +7831,11 @@
       </c>
       <c r="B5" s="25">
         <f>IF('K3'!A5="", "",'K3'!E5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.7962962962962962E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K3'!A5="", "",'K3'!F5)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -7838,11 +7855,11 @@
       </c>
       <c r="B6" s="25">
         <f>IF('K3'!A6="", "",'K3'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>3.8043981481481477E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K3'!A6="", "",'K3'!F6)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -7862,11 +7879,11 @@
       </c>
       <c r="B7" s="25">
         <f>IF('K3'!A7="", "",'K3'!E7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>3.5347222222222217E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K3'!A7="", "",'K3'!F7)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -7886,11 +7903,11 @@
       </c>
       <c r="B8" s="25">
         <f>IF('K3'!A8="", "",'K3'!E8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>3.8831018518518515E-2</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K3'!A8="", "",'K3'!F8)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -7910,11 +7927,11 @@
       </c>
       <c r="B9" s="25">
         <f>IF('K3'!A9="", "",'K3'!E9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>3.2962962962962965E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K3'!A9="", "",'K3'!F9)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -7934,11 +7951,11 @@
       </c>
       <c r="B10" s="25">
         <f>IF('K3'!A10="", "",'K3'!E10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>3.1284722222222221E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K3'!A10="", "",'K3'!F10)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -7958,11 +7975,11 @@
       </c>
       <c r="B11" s="25">
         <f>IF('K3'!A11="", "",'K3'!E11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>4.2280092592592598E-2</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K3'!A11="", "",'K3'!F11)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -7980,9 +7997,9 @@
         <f>IF('K3'!A12="", "",'K3'!A12)</f>
         <v>Ragnhildsløkken, Oskar Lunde</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="25" t="str">
         <f>IF('K3'!A12="", "",'K3'!E12)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K3'!A12="", "",'K3'!F12)</f>
@@ -8004,9 +8021,9 @@
         <f>IF('K3'!A13="", "",'K3'!A13)</f>
         <v>Dokken, Hans Kristian</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="25" t="str">
         <f>IF('K3'!A13="", "",'K3'!E13)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K3'!A13="", "",'K3'!F13)</f>
@@ -12638,7 +12655,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12778,21 +12795,21 @@
         <f t="shared" ref="E4:E67" si="1">IF(A4="","",IFERROR(RANK(C4,C:C,1),"-"))</f>
         <v>2</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="19">
         <f>IF('K3'!E7="", "", 'K3'!E7)</f>
-        <v/>
-      </c>
-      <c r="G4" s="21" t="str">
+        <v>3.5347222222222217E-2</v>
+      </c>
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G67" si="2">IF(F4="","",F4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="23" t="str">
+        <v>3.5347222222222217E-2</v>
+      </c>
+      <c r="H4" s="23">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I4" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="I4" s="23">
         <f t="shared" ref="I4:I67" si="3">IF(A4="","",IFERROR(RANK(G4,G:G,1),"-"))</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="J4" s="19" t="str">
         <f>IF('K3'!H7="", "", 'K3'!H7)</f>
@@ -12812,11 +12829,11 @@
       </c>
       <c r="N4" s="27">
         <f>IF('K3'!K7="", "", 'K3'!K7)</f>
-        <v>1.689814814814815E-3</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="O4" s="28">
         <f t="shared" ref="O4:O67" si="6">IF(A4="","",N4)</f>
-        <v>1.689814814814815E-3</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="P4" s="22" t="str">
         <f>IF(A4="", "",IFERROR(IF(D4+H4+L4=0,"",D4+H4+L4),"-"))</f>
@@ -12848,21 +12865,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F5" s="19">
         <f>IF('K3'!E6="", "", 'K3'!E6)</f>
-        <v/>
-      </c>
-      <c r="G5" s="21" t="str">
+        <v>3.8043981481481477E-2</v>
+      </c>
+      <c r="G5" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H5" s="23" t="str">
+        <v>3.8043981481481477E-2</v>
+      </c>
+      <c r="H5" s="23">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I5" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="I5" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="J5" s="19" t="str">
         <f>IF('K3'!H6="", "", 'K3'!H6)</f>
@@ -12882,11 +12899,11 @@
       </c>
       <c r="N5" s="27">
         <f>IF('K3'!K6="", "", 'K3'!K6)</f>
-        <v>1.9444444444444442E-3</v>
+        <v>3.998842592592592E-2</v>
       </c>
       <c r="O5" s="28">
         <f t="shared" si="6"/>
-        <v>1.9444444444444442E-3</v>
+        <v>3.998842592592592E-2</v>
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ref="P5:P68" si="8">IF(A5="", "",IFERROR(IF(D5+H5+L5=0,"",D5+H5+L5),"-"))</f>
@@ -12918,21 +12935,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="19">
         <f>IF('K2'!E7="", "", 'K2'!E7)</f>
-        <v/>
-      </c>
-      <c r="G6" s="21" t="str">
+        <v>3.5462962962962967E-2</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H6" s="23" t="str">
+        <v>3.5462962962962967E-2</v>
+      </c>
+      <c r="H6" s="23">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I6" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="I6" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="J6" s="19" t="str">
         <f>IF('K2'!H7="", "", 'K2'!H7)</f>
@@ -12952,11 +12969,11 @@
       </c>
       <c r="N6" s="27">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
-        <v>1.8750000000000001E-3</v>
+        <v>3.7337962962962969E-2</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="6"/>
-        <v>1.8750000000000001E-3</v>
+        <v>3.7337962962962969E-2</v>
       </c>
       <c r="P6" s="23" t="str">
         <f t="shared" si="8"/>
@@ -12988,21 +13005,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="19">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="21" t="str">
+        <v>4.0648148148148149E-2</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H7" s="23" t="str">
+        <v>4.0648148148148149E-2</v>
+      </c>
+      <c r="H7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I7" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="I7" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
@@ -13022,11 +13039,11 @@
       </c>
       <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>2.3842592592592591E-3</v>
+        <v>4.3032407407407408E-2</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v>2.3842592592592591E-3</v>
+        <v>4.3032407407407408E-2</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13040,39 +13057,39 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
+        <v>Ragnhildsrud, Ludvig Lunde</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C8" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(E8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F8" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="F8" s="19">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+        <v>5.1770833333333328E-2</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H8" s="23" t="str">
+        <v>5.1770833333333328E-2</v>
+      </c>
+      <c r="H8" s="23">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="I8" s="23" t="str">
+        <v>16</v>
+      </c>
+      <c r="I8" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
@@ -13084,27 +13101,27 @@
       </c>
       <c r="L8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(M8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N8" s="27" t="str">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O8" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q8" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -19778,21 +19795,21 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="F104" s="19" t="str">
+      <c r="F104" s="19">
         <f>IF('K3'!E4="", "", 'K3'!E4)</f>
-        <v/>
-      </c>
-      <c r="G104" s="21" t="str">
+        <v>3.4594907407407408E-2</v>
+      </c>
+      <c r="G104" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H104" s="23" t="str">
+        <v>3.4594907407407408E-2</v>
+      </c>
+      <c r="H104" s="23">
         <f>IF(A104="","",IFERROR(VLOOKUP(I104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I104" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="I104" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="J104" s="19" t="str">
         <f>IF('K3'!H4="", "", 'K3'!H4)</f>
@@ -19812,11 +19829,11 @@
       </c>
       <c r="N104" s="27">
         <f>IF('K3'!K4="", "", 'K3'!K4)</f>
-        <v>1.7824074074074072E-3</v>
+        <v>3.6377314814814814E-2</v>
       </c>
       <c r="O104" s="28">
         <f t="shared" si="15"/>
-        <v>1.7824074074074072E-3</v>
+        <v>3.6377314814814814E-2</v>
       </c>
       <c r="P104" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19848,21 +19865,21 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="F105" s="19" t="str">
+      <c r="F105" s="19">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
-        <v/>
-      </c>
-      <c r="G105" s="21" t="str">
+        <v>3.3981481481481481E-2</v>
+      </c>
+      <c r="G105" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H105" s="23" t="str">
+        <v>3.3981481481481481E-2</v>
+      </c>
+      <c r="H105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(I105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I105" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="I105" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="J105" s="19" t="str">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
@@ -19882,11 +19899,11 @@
       </c>
       <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v>1.7939814814814815E-3</v>
+        <v>3.577546296296296E-2</v>
       </c>
       <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v>1.7939814814814815E-3</v>
+        <v>3.577546296296296E-2</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19918,21 +19935,21 @@
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="F106" s="19" t="str">
+      <c r="F106" s="19">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
-        <v/>
-      </c>
-      <c r="G106" s="21" t="str">
+        <v>4.5775462962962969E-2</v>
+      </c>
+      <c r="G106" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H106" s="23" t="str">
+        <v>4.5775462962962969E-2</v>
+      </c>
+      <c r="H106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I106" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="I106" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
@@ -19952,11 +19969,11 @@
       </c>
       <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>2.685185185185185E-3</v>
+        <v>4.8460648148148155E-2</v>
       </c>
       <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v>2.685185185185185E-3</v>
+        <v>4.8460648148148155E-2</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19990,11 +20007,11 @@
       </c>
       <c r="F107" s="19" t="str">
         <f>IF('K2'!E6="", "", 'K2'!E6)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G107" s="21" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H107" s="23" t="str">
         <f>IF(A107="","",IFERROR(VLOOKUP(I107,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20020,13 +20037,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N107" s="27">
+      <c r="N107" s="27" t="str">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
-        <v>2.3032407407407407E-3</v>
-      </c>
-      <c r="O107" s="28">
+        <v>-</v>
+      </c>
+      <c r="O107" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>2.3032407407407407E-3</v>
+        <v>-</v>
       </c>
       <c r="P107" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26780,11 +26797,11 @@
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G204" s="21" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(I204,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26810,13 +26827,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N204" s="27">
+      <c r="N204" s="27" t="str">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v>2.1412037037037038E-3</v>
-      </c>
-      <c r="O204" s="28">
+        <v>-</v>
+      </c>
+      <c r="O204" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>2.1412037037037038E-3</v>
+        <v>-</v>
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26848,21 +26865,21 @@
         <f t="shared" si="28"/>
         <v>12</v>
       </c>
-      <c r="F205" s="19" t="str">
+      <c r="F205" s="19">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
-        <v/>
-      </c>
-      <c r="G205" s="21" t="str">
+        <v>4.116898148148148E-2</v>
+      </c>
+      <c r="G205" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H205" s="23" t="str">
+        <v>4.116898148148148E-2</v>
+      </c>
+      <c r="H205" s="23">
         <f>IF(A205="","",IFERROR(VLOOKUP(I205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I205" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="I205" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="J205" s="19" t="str">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
@@ -26882,11 +26899,11 @@
       </c>
       <c r="N205" s="27">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v>2.1759259259259258E-3</v>
+        <v>4.3344907407407408E-2</v>
       </c>
       <c r="O205" s="28">
         <f t="shared" si="33"/>
-        <v>2.1759259259259258E-3</v>
+        <v>4.3344907407407408E-2</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26918,21 +26935,21 @@
         <f t="shared" si="28"/>
         <v>16</v>
       </c>
-      <c r="F206" s="19" t="str">
+      <c r="F206" s="19">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
-        <v/>
-      </c>
-      <c r="G206" s="21" t="str">
+        <v>5.0347222222222217E-2</v>
+      </c>
+      <c r="G206" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H206" s="23" t="str">
+        <v>5.0347222222222217E-2</v>
+      </c>
+      <c r="H206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I206" s="23" t="str">
+        <v>18</v>
+      </c>
+      <c r="I206" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>14</v>
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
@@ -26952,11 +26969,11 @@
       </c>
       <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>5.2847222222222219E-2</v>
       </c>
       <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v>2.5000000000000001E-3</v>
+        <v>5.2847222222222219E-2</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26988,21 +27005,21 @@
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="F207" s="19" t="str">
+      <c r="F207" s="19">
         <f>IF('K3'!E5="", "", 'K3'!E5)</f>
-        <v/>
-      </c>
-      <c r="G207" s="21" t="str">
+        <v>3.7962962962962962E-2</v>
+      </c>
+      <c r="G207" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H207" s="23" t="str">
+        <v>3.7962962962962962E-2</v>
+      </c>
+      <c r="H207" s="23">
         <f>IF(A207="","",IFERROR(VLOOKUP(I207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I207" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="I207" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="J207" s="19" t="str">
         <f>IF('K3'!H5="", "", 'K3'!H5)</f>
@@ -27022,11 +27039,11 @@
       </c>
       <c r="N207" s="27">
         <f>IF('K3'!K5="", "", 'K3'!K5)</f>
-        <v>1.7476851851851852E-3</v>
+        <v>3.9710648148148148E-2</v>
       </c>
       <c r="O207" s="28">
         <f t="shared" si="33"/>
-        <v>1.7476851851851852E-3</v>
+        <v>3.9710648148148148E-2</v>
       </c>
       <c r="P207" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27058,21 +27075,21 @@
         <f t="shared" ref="E208:E268" si="37">IF(A208="","",IFERROR(RANK(C208,C:C,1),"-"))</f>
         <v>7</v>
       </c>
-      <c r="F208" s="19" t="str">
+      <c r="F208" s="19">
         <f>IF('K3'!E8="", "", 'K3'!E8)</f>
-        <v/>
-      </c>
-      <c r="G208" s="21" t="str">
+        <v>3.8831018518518515E-2</v>
+      </c>
+      <c r="G208" s="21">
         <f t="shared" ref="G208:G260" si="38">IF(F208="","",F208)</f>
-        <v/>
-      </c>
-      <c r="H208" s="23" t="str">
+        <v>3.8831018518518515E-2</v>
+      </c>
+      <c r="H208" s="23">
         <f>IF(A208="","",IFERROR(VLOOKUP(I208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I208" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="I208" s="23">
         <f t="shared" ref="I208:I260" si="39">IF(A208="","",IFERROR(RANK(G208,G:G,1),"-"))</f>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="J208" s="19" t="str">
         <f>IF('K3'!H8="", "", 'K3'!H8)</f>
@@ -27092,11 +27109,11 @@
       </c>
       <c r="N208" s="27">
         <f>IF('K3'!K8="", "", 'K3'!K8)</f>
-        <v>1.8171296296296297E-3</v>
+        <v>4.0648148148148142E-2</v>
       </c>
       <c r="O208" s="28">
         <f t="shared" ref="O208:O260" si="42">IF(A208="","",N208)</f>
-        <v>1.8171296296296297E-3</v>
+        <v>4.0648148148148142E-2</v>
       </c>
       <c r="P208" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27128,21 +27145,21 @@
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="F209" s="19" t="str">
+      <c r="F209" s="19">
         <f>IF('K3'!E9="", "", 'K3'!E9)</f>
-        <v/>
-      </c>
-      <c r="G209" s="21" t="str">
+        <v>3.2962962962962965E-2</v>
+      </c>
+      <c r="G209" s="21">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H209" s="23" t="str">
+        <v>3.2962962962962965E-2</v>
+      </c>
+      <c r="H209" s="23">
         <f>IF(A209="","",IFERROR(VLOOKUP(I209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I209" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="I209" s="23">
         <f t="shared" si="39"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="J209" s="19" t="str">
         <f>IF('K3'!H9="", "", 'K3'!H9)</f>
@@ -27162,11 +27179,11 @@
       </c>
       <c r="N209" s="27">
         <f>IF('K3'!K9="", "", 'K3'!K9)</f>
-        <v>1.6435185185185183E-3</v>
+        <v>3.4606481481481481E-2</v>
       </c>
       <c r="O209" s="28">
         <f t="shared" si="42"/>
-        <v>1.6435185185185183E-3</v>
+        <v>3.4606481481481481E-2</v>
       </c>
       <c r="P209" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27198,21 +27215,21 @@
         <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="F210" s="19" t="str">
+      <c r="F210" s="19">
         <f>IF('K3'!E10="", "", 'K3'!E10)</f>
-        <v/>
-      </c>
-      <c r="G210" s="21" t="str">
+        <v>3.1284722222222221E-2</v>
+      </c>
+      <c r="G210" s="21">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H210" s="23" t="str">
+        <v>3.1284722222222221E-2</v>
+      </c>
+      <c r="H210" s="23">
         <f>IF(A210="","",IFERROR(VLOOKUP(I210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I210" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="I210" s="23">
         <f t="shared" si="39"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="J210" s="19" t="str">
         <f>IF('K3'!H10="", "", 'K3'!H10)</f>
@@ -27232,11 +27249,11 @@
       </c>
       <c r="N210" s="27">
         <f>IF('K3'!K10="", "", 'K3'!K10)</f>
-        <v>1.8402777777777777E-3</v>
+        <v>3.3125000000000002E-2</v>
       </c>
       <c r="O210" s="28">
         <f t="shared" si="42"/>
-        <v>1.8402777777777777E-3</v>
+        <v>3.3125000000000002E-2</v>
       </c>
       <c r="P210" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27268,21 +27285,21 @@
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="F211" s="19" t="str">
+      <c r="F211" s="19">
         <f>IF('K3'!E11="", "", 'K3'!E11)</f>
-        <v/>
-      </c>
-      <c r="G211" s="21" t="str">
+        <v>4.2280092592592598E-2</v>
+      </c>
+      <c r="G211" s="21">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H211" s="23" t="str">
+        <v>4.2280092592592598E-2</v>
+      </c>
+      <c r="H211" s="23">
         <f>IF(A211="","",IFERROR(VLOOKUP(I211,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I211" s="23" t="str">
+        <v>22</v>
+      </c>
+      <c r="I211" s="23">
         <f t="shared" si="39"/>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="J211" s="19" t="str">
         <f>IF('K3'!H11="", "", 'K3'!H11)</f>
@@ -27302,11 +27319,11 @@
       </c>
       <c r="N211" s="27">
         <f>IF('K3'!K11="", "", 'K3'!K11)</f>
-        <v>1.8055555555555557E-3</v>
+        <v>4.4085648148148152E-2</v>
       </c>
       <c r="O211" s="28">
         <f t="shared" si="42"/>
-        <v>1.8055555555555557E-3</v>
+        <v>4.4085648148148152E-2</v>
       </c>
       <c r="P211" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27340,11 +27357,11 @@
       </c>
       <c r="F212" s="19" t="str">
         <f>IF('K3'!E12="", "", 'K3'!E12)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G212" s="21" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H212" s="23" t="str">
         <f>IF(A212="","",IFERROR(VLOOKUP(I212,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27410,11 +27427,11 @@
       </c>
       <c r="F213" s="19" t="str">
         <f>IF('K3'!E13="", "", 'K3'!E13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G213" s="21" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H213" s="23" t="str">
         <f>IF(A213="","",IFERROR(VLOOKUP(I213,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27440,13 +27457,13 @@
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
-      <c r="N213" s="27">
+      <c r="N213" s="27" t="str">
         <f>IF('K3'!K13="", "", 'K3'!K13)</f>
-        <v>2.1990740740740742E-3</v>
-      </c>
-      <c r="O213" s="28">
+        <v>-</v>
+      </c>
+      <c r="O213" s="28" t="str">
         <f t="shared" si="42"/>
-        <v>2.1990740740740742E-3</v>
+        <v>-</v>
       </c>
       <c r="P213" s="23" t="str">
         <f t="shared" si="35"/>
@@ -33950,15 +33967,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
-        <v/>
+        <v>Ragnhildsrud, Ludvig Lunde</v>
       </c>
       <c r="B8" s="41" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!P8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!Q8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -39826,7 +39843,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39932,14 +39949,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>3.3981481481481481E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -39952,7 +39971,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>1.7939814814814815E-3</v>
+        <v>3.577546296296296E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -39978,7 +39997,9 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
         <v>-</v>
@@ -39996,9 +40017,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>2.1412037037037038E-3</v>
+        <v>-</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -40024,7 +40045,9 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -40042,9 +40065,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2.3032407407407407E-3</v>
+        <v>-</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40070,14 +40093,16 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="10" t="str">
+      <c r="E7" s="25">
+        <v>3.5462962962962967E-2</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
@@ -40090,7 +40115,7 @@
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>1.8750000000000001E-3</v>
+        <v>3.7337962962962969E-2</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44155,7 +44180,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44261,14 +44286,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>3.4594907407407408E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -44281,7 +44308,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>1.7824074074074072E-3</v>
+        <v>3.6377314814814814E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -44307,14 +44334,16 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="10" t="str">
+      <c r="E5" s="25">
+        <v>3.7962962962962962E-2</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
@@ -44327,7 +44356,7 @@
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>1.7476851851851852E-3</v>
+        <v>3.9710648148148148E-2</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -44353,14 +44382,16 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>32</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="25">
+        <v>3.8043981481481477E-2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
@@ -44373,7 +44404,7 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>1.9444444444444442E-3</v>
+        <v>3.998842592592592E-2</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44399,14 +44430,16 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="10" t="str">
+      <c r="E7" s="25">
+        <v>3.5347222222222217E-2</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
@@ -44419,7 +44452,7 @@
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>1.689814814814815E-3</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44445,14 +44478,16 @@
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="10" t="str">
+      <c r="E8" s="25">
+        <v>3.8831018518518515E-2</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
@@ -44465,7 +44500,7 @@
       </c>
       <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v>1.8171296296296297E-3</v>
+        <v>4.0648148148148142E-2</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44491,14 +44526,16 @@
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="10" t="str">
+      <c r="E9" s="25">
+        <v>3.2962962962962965E-2</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
@@ -44511,7 +44548,7 @@
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>1.6435185185185183E-3</v>
+        <v>3.4606481481481481E-2</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44537,14 +44574,16 @@
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="10" t="str">
+      <c r="E10" s="25">
+        <v>3.1284722222222221E-2</v>
+      </c>
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
@@ -44557,7 +44596,7 @@
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>1.8402777777777777E-3</v>
+        <v>3.3125000000000002E-2</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44583,14 +44622,16 @@
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="10" t="str">
+      <c r="E11" s="25">
+        <v>4.2280092592592598E-2</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
@@ -44603,7 +44644,7 @@
       </c>
       <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v>1.8055555555555557E-3</v>
+        <v>4.4085648148148152E-2</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44629,7 +44670,9 @@
         <f>IF(A12="","", IFERROR(VLOOKUP(C12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="F12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -44675,7 +44718,9 @@
         <f>IF(A13="","", IFERROR(VLOOKUP(C13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>29</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="F13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -44693,9 +44738,9 @@
         <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2.1990740740740742E-3</v>
+        <v>-</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="4"/>
@@ -48671,15 +48716,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
+        <v>Ragnhildsrud, Ludvig Lunde</v>
       </c>
       <c r="B8" s="36" t="str">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!C8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -51038,11 +51083,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>4.0648148148148149E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -51062,11 +51107,11 @@
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>4.5775462962962969E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -51086,11 +51131,11 @@
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>5.0347222222222217E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -51110,11 +51155,11 @@
       </c>
       <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>4.116898148148148E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K1'!A7="", "",'K1'!F7)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -51130,15 +51175,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="25" t="str">
+        <v>Ragnhildsrud, Ludvig Lunde</v>
+      </c>
+      <c r="B8" s="25">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>5.1770833333333328E-2</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K1'!A8="", "",'K1'!F8)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -53591,15 +53636,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Ragnhildsrud, Ludvig Lunde</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!I8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -58417,11 +58462,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.3981481481481481E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!F4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -58439,9 +58484,9 @@
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
         <v>Gigstad-Bergene, Tobias</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="25" t="str">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!F5)</f>
@@ -58463,9 +58508,9 @@
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
         <v>Korshavn, Jonathan Heimdal</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="25" t="str">
         <f>IF('K2'!A6="", "",'K2'!E6)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K2'!A6="", "",'K2'!F6)</f>
@@ -58489,11 +58534,11 @@
       </c>
       <c r="B7" s="25">
         <f>IF('K2'!A7="", "",'K2'!E7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>3.5462962962962967E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K2'!A7="", "",'K2'!F7)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>

--- a/gutter.xlsx
+++ b/gutter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="32180" windowHeight="19660" tabRatio="991"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="32180" windowHeight="19660" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
     <t>Dag1</t>
   </si>
@@ -934,8 +934,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1051,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -1060,9 +1062,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>4.3032407407407408E-2</v>
+        <v>-</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1099,26 +1101,28 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="25">
+        <v>3.4884259259259261E-2</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>4.8460648148148155E-2</v>
-      </c>
-      <c r="L5" s="10" t="str">
+        <v>8.3344907407407409E-2</v>
+      </c>
+      <c r="L5" s="10">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v>-</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1147,7 +1151,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1156,9 +1162,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>5.2847222222222219E-2</v>
+        <v>-</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1195,7 +1201,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1204,9 +1212,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4.3344907407407408E-2</v>
+        <v>-</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1243,7 +1251,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -10268,11 +10278,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>2.417824074074074E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K3'!A4="", "",'K3'!I4)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -10292,11 +10302,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>2.8055555555555556E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K3'!A5="", "",'K3'!I5)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -10316,11 +10326,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>2.9236111111111112E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K3'!A6="", "",'K3'!I6)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -10340,11 +10350,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!H7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>2.4131944444444445E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K3'!A7="", "",'K3'!I7)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -10364,11 +10374,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!H8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>2.5659722222222223E-2</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K3'!A8="", "",'K3'!I8)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -10388,11 +10398,11 @@
       </c>
       <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!H9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>2.4004629629629629E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K3'!A9="", "",'K3'!I9)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -10412,11 +10422,11 @@
       </c>
       <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!H10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>2.5289351851851851E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K3'!A10="", "",'K3'!I10)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -10434,9 +10444,9 @@
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
         <v>Ulsrud, Herman Byfuglien</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="36" t="str">
         <f>IF('K3'!A11="", "",'K3'!H11)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K3'!A11="", "",'K3'!I11)</f>
@@ -10460,11 +10470,11 @@
       </c>
       <c r="B12" s="36">
         <f>IF('K3'!A12="", "",'K3'!H12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="37" t="str">
+        <v>2.5972222222222219E-2</v>
+      </c>
+      <c r="C12" s="37">
         <f>IF('K3'!A12="", "",'K3'!I12)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -10482,9 +10492,9 @@
         <f>IF('K3'!A13="", "",'K3'!A13)</f>
         <v>Dokken, Hans Kristian</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="36" t="str">
         <f>IF('K3'!A13="", "",'K3'!H13)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K3'!A13="", "",'K3'!I13)</f>
@@ -12811,37 +12821,37 @@
         <f t="shared" ref="I4:I67" si="3">IF(A4="","",IFERROR(RANK(G4,G:G,1),"-"))</f>
         <v>5</v>
       </c>
-      <c r="J4" s="19" t="str">
+      <c r="J4" s="19">
         <f>IF('K3'!H7="", "", 'K3'!H7)</f>
-        <v/>
-      </c>
-      <c r="K4" s="29" t="str">
+        <v>2.4131944444444445E-2</v>
+      </c>
+      <c r="K4" s="29">
         <f t="shared" ref="K4:K67" si="4">IF(J4="","",J4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="23" t="str">
+        <v>2.4131944444444445E-2</v>
+      </c>
+      <c r="L4" s="23">
         <f>IF(A4="","",IFERROR(VLOOKUP(M4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="M4" s="23">
         <f t="shared" ref="M4:M67" si="5">IF(A4="","",IFERROR(RANK(K4,K:K,1),"-"))</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="N4" s="27">
         <f>IF('K3'!K7="", "", 'K3'!K7)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>6.1168981481481477E-2</v>
       </c>
       <c r="O4" s="28">
         <f t="shared" ref="O4:O67" si="6">IF(A4="","",N4)</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="P4" s="22" t="str">
+        <v>6.1168981481481477E-2</v>
+      </c>
+      <c r="P4" s="22">
         <f>IF(A4="", "",IFERROR(IF(D4+H4+L4=0,"",D4+H4+L4),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="Q4" s="23" t="str">
+        <v>205</v>
+      </c>
+      <c r="Q4" s="23">
         <f t="shared" ref="Q4:Q67" si="7">IF(A4="","", IFERROR(RANK(P4,P:P,0),"-"))</f>
-        <v>-</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -12881,37 +12891,37 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="19">
         <f>IF('K3'!H6="", "", 'K3'!H6)</f>
-        <v/>
-      </c>
-      <c r="K5" s="29" t="str">
+        <v>2.9236111111111112E-2</v>
+      </c>
+      <c r="K5" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L5" s="23" t="str">
+        <v>2.9236111111111112E-2</v>
+      </c>
+      <c r="L5" s="23">
         <f>IF(A5="","",IFERROR(VLOOKUP(M5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="M5" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="N5" s="27">
         <f>IF('K3'!K6="", "", 'K3'!K6)</f>
-        <v>3.998842592592592E-2</v>
+        <v>6.9224537037037029E-2</v>
       </c>
       <c r="O5" s="28">
         <f t="shared" si="6"/>
-        <v>3.998842592592592E-2</v>
-      </c>
-      <c r="P5" s="23" t="str">
+        <v>6.9224537037037029E-2</v>
+      </c>
+      <c r="P5" s="23">
         <f t="shared" ref="P5:P68" si="8">IF(A5="", "",IFERROR(IF(D5+H5+L5=0,"",D5+H5+L5),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="Q5" s="23" t="str">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -12951,37 +12961,37 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="19">
         <f>IF('K2'!H7="", "", 'K2'!H7)</f>
-        <v/>
-      </c>
-      <c r="K6" s="29" t="str">
+        <v>2.6620370370370374E-2</v>
+      </c>
+      <c r="K6" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L6" s="23" t="str">
+        <v>2.6620370370370374E-2</v>
+      </c>
+      <c r="L6" s="23">
         <f>IF(A6="","",IFERROR(VLOOKUP(M6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M6" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="M6" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="N6" s="27">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
-        <v>3.7337962962962969E-2</v>
+        <v>6.3958333333333339E-2</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="6"/>
-        <v>3.7337962962962969E-2</v>
-      </c>
-      <c r="P6" s="23" t="str">
+        <v>6.3958333333333339E-2</v>
+      </c>
+      <c r="P6" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q6" s="23" t="str">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -13023,11 +13033,11 @@
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K7" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13037,13 +13047,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="27" t="str">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>4.3032407407407408E-2</v>
-      </c>
-      <c r="O7" s="28">
+        <v>-</v>
+      </c>
+      <c r="O7" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>4.3032407407407408E-2</v>
+        <v>-</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13093,11 +13103,11 @@
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K8" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(M8,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19811,37 +19821,37 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="J104" s="19" t="str">
+      <c r="J104" s="19">
         <f>IF('K3'!H4="", "", 'K3'!H4)</f>
-        <v/>
-      </c>
-      <c r="K104" s="29" t="str">
+        <v>2.417824074074074E-2</v>
+      </c>
+      <c r="K104" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L104" s="23" t="str">
+        <v>2.417824074074074E-2</v>
+      </c>
+      <c r="L104" s="23">
         <f>IF(A104="","",IFERROR(VLOOKUP(M104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M104" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="M104" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="N104" s="27">
         <f>IF('K3'!K4="", "", 'K3'!K4)</f>
-        <v>3.6377314814814814E-2</v>
+        <v>6.0555555555555557E-2</v>
       </c>
       <c r="O104" s="28">
         <f t="shared" si="15"/>
-        <v>3.6377314814814814E-2</v>
-      </c>
-      <c r="P104" s="23" t="str">
+        <v>6.0555555555555557E-2</v>
+      </c>
+      <c r="P104" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q104" s="23" t="str">
+        <v>160</v>
+      </c>
+      <c r="Q104" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -19881,37 +19891,37 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J105" s="19" t="str">
+      <c r="J105" s="19">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
-        <v/>
-      </c>
-      <c r="K105" s="29" t="str">
+        <v>2.56712962962963E-2</v>
+      </c>
+      <c r="K105" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L105" s="23" t="str">
+        <v>2.56712962962963E-2</v>
+      </c>
+      <c r="L105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(M105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M105" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="M105" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v>3.577546296296296E-2</v>
+        <v>6.1446759259259257E-2</v>
       </c>
       <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v>3.577546296296296E-2</v>
-      </c>
-      <c r="P105" s="23" t="str">
+        <v>6.1446759259259257E-2</v>
+      </c>
+      <c r="P105" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q105" s="23" t="str">
+        <v>145</v>
+      </c>
+      <c r="Q105" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -19951,37 +19961,37 @@
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="J106" s="19" t="str">
+      <c r="J106" s="19">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
-        <v/>
-      </c>
-      <c r="K106" s="29" t="str">
+        <v>3.4884259259259261E-2</v>
+      </c>
+      <c r="K106" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L106" s="23" t="str">
+        <v>3.4884259259259261E-2</v>
+      </c>
+      <c r="L106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M106" s="23" t="str">
+        <v>22</v>
+      </c>
+      <c r="M106" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>4.8460648148148155E-2</v>
+        <v>8.3344907407407409E-2</v>
       </c>
       <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v>4.8460648148148155E-2</v>
-      </c>
-      <c r="P106" s="23" t="str">
+        <v>8.3344907407407409E-2</v>
+      </c>
+      <c r="P106" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q106" s="23" t="str">
+        <v>56</v>
+      </c>
+      <c r="Q106" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -20021,21 +20031,21 @@
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J107" s="19" t="str">
+      <c r="J107" s="19">
         <f>IF('K2'!H6="", "", 'K2'!H6)</f>
-        <v/>
-      </c>
-      <c r="K107" s="29" t="str">
+        <v>3.7083333333333336E-2</v>
+      </c>
+      <c r="K107" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L107" s="23" t="str">
+        <v>3.7083333333333336E-2</v>
+      </c>
+      <c r="L107" s="23">
         <f>IF(A107="","",IFERROR(VLOOKUP(M107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M107" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="M107" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="N107" s="27" t="str">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
@@ -26811,21 +26821,21 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
-      <c r="J204" s="19" t="str">
+      <c r="J204" s="19">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
-        <v/>
-      </c>
-      <c r="K204" s="29" t="str">
+        <v>3.1851851851851853E-2</v>
+      </c>
+      <c r="K204" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L204" s="23" t="str">
+        <v>3.1851851851851853E-2</v>
+      </c>
+      <c r="L204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(M204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M204" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="M204" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="N204" s="27" t="str">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
@@ -26883,11 +26893,11 @@
       </c>
       <c r="J205" s="19" t="str">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K205" s="29" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(M205,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26897,13 +26907,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N205" s="27">
+      <c r="N205" s="27" t="str">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v>4.3344907407407408E-2</v>
-      </c>
-      <c r="O205" s="28">
+        <v>-</v>
+      </c>
+      <c r="O205" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>4.3344907407407408E-2</v>
+        <v>-</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26953,11 +26963,11 @@
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K206" s="29" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26967,13 +26977,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N206" s="27">
+      <c r="N206" s="27" t="str">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>5.2847222222222219E-2</v>
-      </c>
-      <c r="O206" s="28">
+        <v>-</v>
+      </c>
+      <c r="O206" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>5.2847222222222219E-2</v>
+        <v>-</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27021,37 +27031,37 @@
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="J207" s="19" t="str">
+      <c r="J207" s="19">
         <f>IF('K3'!H5="", "", 'K3'!H5)</f>
-        <v/>
-      </c>
-      <c r="K207" s="29" t="str">
+        <v>2.8055555555555556E-2</v>
+      </c>
+      <c r="K207" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L207" s="23" t="str">
+        <v>2.8055555555555556E-2</v>
+      </c>
+      <c r="L207" s="23">
         <f>IF(A207="","",IFERROR(VLOOKUP(M207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M207" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="M207" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="N207" s="27">
         <f>IF('K3'!K5="", "", 'K3'!K5)</f>
-        <v>3.9710648148148148E-2</v>
+        <v>6.7766203703703703E-2</v>
       </c>
       <c r="O207" s="28">
         <f t="shared" si="33"/>
-        <v>3.9710648148148148E-2</v>
-      </c>
-      <c r="P207" s="23" t="str">
+        <v>6.7766203703703703E-2</v>
+      </c>
+      <c r="P207" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q207" s="23" t="str">
+        <v>125</v>
+      </c>
+      <c r="Q207" s="23">
         <f t="shared" si="34"/>
-        <v>-</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
@@ -27091,37 +27101,37 @@
         <f t="shared" ref="I208:I260" si="39">IF(A208="","",IFERROR(RANK(G208,G:G,1),"-"))</f>
         <v>9</v>
       </c>
-      <c r="J208" s="19" t="str">
+      <c r="J208" s="19">
         <f>IF('K3'!H8="", "", 'K3'!H8)</f>
-        <v/>
-      </c>
-      <c r="K208" s="29" t="str">
+        <v>2.5659722222222223E-2</v>
+      </c>
+      <c r="K208" s="29">
         <f t="shared" ref="K208:K260" si="40">IF(J208="","",J208)</f>
-        <v/>
-      </c>
-      <c r="L208" s="23" t="str">
+        <v>2.5659722222222223E-2</v>
+      </c>
+      <c r="L208" s="23">
         <f>IF(A208="","",IFERROR(VLOOKUP(M208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M208" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="M208" s="23">
         <f t="shared" ref="M208:M260" si="41">IF(A208="","",IFERROR(RANK(K208,K:K,1),"-"))</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="N208" s="27">
         <f>IF('K3'!K8="", "", 'K3'!K8)</f>
-        <v>4.0648148148148142E-2</v>
+        <v>6.6307870370370364E-2</v>
       </c>
       <c r="O208" s="28">
         <f t="shared" ref="O208:O260" si="42">IF(A208="","",N208)</f>
-        <v>4.0648148148148142E-2</v>
-      </c>
-      <c r="P208" s="23" t="str">
+        <v>6.6307870370370364E-2</v>
+      </c>
+      <c r="P208" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q208" s="23" t="str">
+        <v>110</v>
+      </c>
+      <c r="Q208" s="23">
         <f t="shared" ref="Q208:Q260" si="43">IF(A208="","", IFERROR(RANK(P208,P:P,0),"-"))</f>
-        <v>-</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
@@ -27161,37 +27171,37 @@
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="J209" s="19" t="str">
+      <c r="J209" s="19">
         <f>IF('K3'!H9="", "", 'K3'!H9)</f>
-        <v/>
-      </c>
-      <c r="K209" s="29" t="str">
+        <v>2.4004629629629629E-2</v>
+      </c>
+      <c r="K209" s="29">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L209" s="23" t="str">
+        <v>2.4004629629629629E-2</v>
+      </c>
+      <c r="L209" s="23">
         <f>IF(A209="","",IFERROR(VLOOKUP(M209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M209" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="M209" s="23">
         <f t="shared" si="41"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="N209" s="27">
         <f>IF('K3'!K9="", "", 'K3'!K9)</f>
-        <v>3.4606481481481481E-2</v>
+        <v>5.8611111111111114E-2</v>
       </c>
       <c r="O209" s="28">
         <f t="shared" si="42"/>
-        <v>3.4606481481481481E-2</v>
-      </c>
-      <c r="P209" s="23" t="str">
+        <v>5.8611111111111114E-2</v>
+      </c>
+      <c r="P209" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q209" s="23" t="str">
+        <v>280</v>
+      </c>
+      <c r="Q209" s="23">
         <f t="shared" si="43"/>
-        <v>-</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
@@ -27231,37 +27241,37 @@
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="J210" s="19" t="str">
+      <c r="J210" s="19">
         <f>IF('K3'!H10="", "", 'K3'!H10)</f>
-        <v/>
-      </c>
-      <c r="K210" s="29" t="str">
+        <v>2.5289351851851851E-2</v>
+      </c>
+      <c r="K210" s="29">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L210" s="23" t="str">
+        <v>2.5289351851851851E-2</v>
+      </c>
+      <c r="L210" s="23">
         <f>IF(A210="","",IFERROR(VLOOKUP(M210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M210" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="M210" s="23">
         <f t="shared" si="41"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="N210" s="27">
         <f>IF('K3'!K10="", "", 'K3'!K10)</f>
-        <v>3.3125000000000002E-2</v>
+        <v>5.8414351851851856E-2</v>
       </c>
       <c r="O210" s="28">
         <f t="shared" si="42"/>
-        <v>3.3125000000000002E-2</v>
-      </c>
-      <c r="P210" s="23" t="str">
+        <v>5.8414351851851856E-2</v>
+      </c>
+      <c r="P210" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q210" s="23" t="str">
+        <v>182</v>
+      </c>
+      <c r="Q210" s="23">
         <f t="shared" si="43"/>
-        <v>-</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
@@ -27303,11 +27313,11 @@
       </c>
       <c r="J211" s="19" t="str">
         <f>IF('K3'!H11="", "", 'K3'!H11)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K211" s="29" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L211" s="23" t="str">
         <f>IF(A211="","",IFERROR(VLOOKUP(M211,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27317,13 +27327,13 @@
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
-      <c r="N211" s="27">
+      <c r="N211" s="27" t="str">
         <f>IF('K3'!K11="", "", 'K3'!K11)</f>
-        <v>4.4085648148148152E-2</v>
-      </c>
-      <c r="O211" s="28">
+        <v>-</v>
+      </c>
+      <c r="O211" s="28" t="str">
         <f t="shared" si="42"/>
-        <v>4.4085648148148152E-2</v>
+        <v>-</v>
       </c>
       <c r="P211" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27371,21 +27381,21 @@
         <f t="shared" si="39"/>
         <v>-</v>
       </c>
-      <c r="J212" s="19" t="str">
+      <c r="J212" s="19">
         <f>IF('K3'!H12="", "", 'K3'!H12)</f>
-        <v/>
-      </c>
-      <c r="K212" s="29" t="str">
+        <v>2.5972222222222219E-2</v>
+      </c>
+      <c r="K212" s="29">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L212" s="23" t="str">
+        <v>2.5972222222222219E-2</v>
+      </c>
+      <c r="L212" s="23">
         <f>IF(A212="","",IFERROR(VLOOKUP(M212,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M212" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="M212" s="23">
         <f t="shared" si="41"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="N212" s="27" t="str">
         <f>IF('K3'!K12="", "", 'K3'!K12)</f>
@@ -27443,11 +27453,11 @@
       </c>
       <c r="J213" s="19" t="str">
         <f>IF('K3'!H13="", "", 'K3'!H13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K213" s="29" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L213" s="23" t="str">
         <f>IF(A213="","",IFERROR(VLOOKUP(M213,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -33873,13 +33883,13 @@
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
         <v>Eng, Anders Alme</v>
       </c>
-      <c r="B4" s="41" t="str">
+      <c r="B4" s="41">
         <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
-        <v>-</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>84</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF(D1D2D3!A5="", "",D1D2D3!Q5)</f>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -33897,13 +33907,13 @@
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
         <v>Lundby, Jakob</v>
       </c>
-      <c r="B5" s="41" t="str">
+      <c r="B5" s="41">
         <f>IF(D1D2D3!A4="", "",D1D2D3!P4)</f>
-        <v>-</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>205</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF(D1D2D3!A4="", "",D1D2D3!Q4)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -33945,13 +33955,13 @@
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
         <v>Ringli, Martin Jørstad</v>
       </c>
-      <c r="B7" s="41" t="str">
+      <c r="B7" s="41">
         <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
-        <v>-</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>101</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF(D1D2D3!A6="", "",D1D2D3!Q6)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -36254,13 +36264,13 @@
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
         <v>Andersen, Erlend</v>
       </c>
-      <c r="B104" s="41" t="str">
+      <c r="B104" s="41">
         <f>IF(D1D2D3!A104="", "",D1D2D3!P104)</f>
-        <v>-</v>
-      </c>
-      <c r="C104" s="37" t="str">
+        <v>160</v>
+      </c>
+      <c r="C104" s="37">
         <f>IF(D1D2D3!A104="", "",D1D2D3!Q104)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -36268,13 +36278,13 @@
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
         <v>Engdal, Eskil</v>
       </c>
-      <c r="B105" s="41" t="str">
+      <c r="B105" s="41">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
-        <v>-</v>
-      </c>
-      <c r="C105" s="37" t="str">
+        <v>145</v>
+      </c>
+      <c r="C105" s="37">
         <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -36282,13 +36292,13 @@
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
         <v>Granvold, Marius</v>
       </c>
-      <c r="B106" s="41" t="str">
+      <c r="B106" s="41">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
-        <v>-</v>
-      </c>
-      <c r="C106" s="37" t="str">
+        <v>56</v>
+      </c>
+      <c r="C106" s="37">
         <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
-        <v>-</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -37682,13 +37692,13 @@
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
         <v>Christensen, Christian Thon</v>
       </c>
-      <c r="B206" s="41" t="str">
+      <c r="B206" s="41">
         <f>IF(D1D2D3!A207="", "",D1D2D3!P207)</f>
-        <v>-</v>
-      </c>
-      <c r="C206" s="37" t="str">
+        <v>125</v>
+      </c>
+      <c r="C206" s="37">
         <f>IF(D1D2D3!A207="", "",D1D2D3!Q207)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -37696,13 +37706,13 @@
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
         <v>Sømoen, Brage</v>
       </c>
-      <c r="B207" s="41" t="str">
+      <c r="B207" s="41">
         <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
-        <v>-</v>
-      </c>
-      <c r="C207" s="37" t="str">
+        <v>110</v>
+      </c>
+      <c r="C207" s="37">
         <f>IF(D1D2D3!A208="", "",D1D2D3!Q208)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -37710,13 +37720,13 @@
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
         <v>Thon, Vegard</v>
       </c>
-      <c r="B208" s="41" t="str">
+      <c r="B208" s="41">
         <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
-        <v>-</v>
-      </c>
-      <c r="C208" s="37" t="str">
+        <v>280</v>
+      </c>
+      <c r="C208" s="37">
         <f>IF(D1D2D3!A209="", "",D1D2D3!Q209)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -37724,13 +37734,13 @@
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
         <v>Tollehaug, Per Ingvar</v>
       </c>
-      <c r="B209" s="41" t="str">
+      <c r="B209" s="41">
         <f>IF(D1D2D3!A210="", "",D1D2D3!P210)</f>
-        <v>-</v>
-      </c>
-      <c r="C209" s="37" t="str">
+        <v>182</v>
+      </c>
+      <c r="C209" s="37">
         <f>IF(D1D2D3!A210="", "",D1D2D3!Q210)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -39842,8 +39852,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39960,26 +39970,28 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="25">
+        <v>2.56712962962963E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>3.577546296296296E-2</v>
-      </c>
-      <c r="L4" s="10" t="str">
+        <v>6.1446759259259257E-2</v>
+      </c>
+      <c r="L4" s="10">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v>-</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -40008,14 +40020,16 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="25">
+        <v>3.1851851851851853E-2</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="J5" s="12">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
@@ -40056,14 +40070,16 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>3.7083333333333336E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
@@ -40104,26 +40120,28 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="25">
+        <v>2.6620370370370374E-2</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J7" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>3.7337962962962969E-2</v>
-      </c>
-      <c r="L7" s="10" t="str">
+        <v>6.3958333333333339E-2</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M7" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M7" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -44180,7 +44198,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44297,26 +44315,28 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="25">
+        <v>2.417824074074074E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>3.6377314814814814E-2</v>
-      </c>
-      <c r="L4" s="10" t="str">
+        <v>6.0555555555555557E-2</v>
+      </c>
+      <c r="L4" s="10">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v>-</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -44345,26 +44365,28 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="25">
+        <v>2.8055555555555556E-2</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="12" t="str">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>3.9710648148148148E-2</v>
-      </c>
-      <c r="L5" s="10" t="str">
+        <v>6.7766203703703703E-2</v>
+      </c>
+      <c r="L5" s="10">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v>-</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -44393,26 +44415,28 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>2.9236111111111112E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>8</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>3.998842592592592E-2</v>
-      </c>
-      <c r="L6" s="10" t="str">
+        <v>6.9224537037037029E-2</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>7</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -44441,26 +44465,28 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="25">
+        <v>2.4131944444444445E-2</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J7" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="L7" s="10" t="str">
+        <v>6.1168981481481477E-2</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M7" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M7" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -44489,26 +44515,28 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="10" t="str">
+      <c r="H8" s="25">
+        <v>2.5659722222222223E-2</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J8" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v>4.0648148148148142E-2</v>
-      </c>
-      <c r="L8" s="10" t="str">
+        <v>6.6307870370370364E-2</v>
+      </c>
+      <c r="L8" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M8" s="12" t="str">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -44537,26 +44565,28 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="10" t="str">
+      <c r="H9" s="25">
+        <v>2.4004629629629629E-2</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J9" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>3.4606481481481481E-2</v>
-      </c>
-      <c r="L9" s="10" t="str">
+        <v>5.8611111111111114E-2</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M9" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -44585,26 +44615,28 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="10" t="str">
+      <c r="H10" s="25">
+        <v>2.5289351851851851E-2</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J10" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>3.3125000000000002E-2</v>
-      </c>
-      <c r="L10" s="10" t="str">
+        <v>5.8414351851851856E-2</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M10" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -44633,7 +44665,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>32</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -44642,9 +44676,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4.4085648148148152E-2</v>
+        <v>-</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44681,14 +44715,16 @@
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="10" t="str">
+      <c r="H12" s="25">
+        <v>2.5972222222222219E-2</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J12" s="12" t="str">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="K12" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44729,7 +44765,9 @@
         <f>IF(A13="","",IFERROR(VLOOKUP(F13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -53542,9 +53580,9 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Evensen, Magnus Moslet</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="36" t="str">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!I4)</f>
@@ -53568,11 +53606,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.4884259259259261E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!I5)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -53590,9 +53628,9 @@
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Koll, Kristoffer</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="36" t="str">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!I6)</f>
@@ -53614,9 +53652,9 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Evensen, Sindre Østlien</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="36" t="str">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!I7)</f>
@@ -53638,9 +53676,9 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Ragnhildsrud, Ludvig Lunde</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="36" t="str">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!I8)</f>
@@ -60923,11 +60961,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>2.56712962962963E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!I4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -60947,11 +60985,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.1851851851851853E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!I5)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -60971,11 +61009,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>3.7083333333333336E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K2'!A6="", "",'K2'!I6)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -60995,11 +61033,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!H7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>2.6620370370370374E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K2'!A7="", "",'K2'!I7)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>

--- a/gutter.xlsx
+++ b/gutter.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="32180" windowHeight="19660" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="32180" windowHeight="19660" tabRatio="991" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -352,6 +352,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -5276,8 +5281,9 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5287,7 +5293,7 @@
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7735,8 +7741,9 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10196,18 +10203,19 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet12" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10273,16 +10281,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
-        <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Andersen, Erlend</v>
+        <f>IF('K3'!A9="", "",'K3'!A9)</f>
+        <v>Thon, Vegard</v>
       </c>
       <c r="B4" s="36">
-        <f>IF('K3'!A4="", "",'K3'!H4)</f>
-        <v>2.417824074074074E-2</v>
+        <f>IF('K3'!A9="", "",'K3'!H9)</f>
+        <v>2.4004629629629629E-2</v>
       </c>
       <c r="C4" s="37">
-        <f>IF('K3'!A4="", "",'K3'!I4)</f>
-        <v>3</v>
+        <f>IF('K3'!A9="", "",'K3'!I9)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -10297,16 +10305,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
-        <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Christensen, Christian Thon</v>
+        <f>IF('K3'!A7="", "",'K3'!A7)</f>
+        <v>Lundby, Jakob</v>
       </c>
       <c r="B5" s="36">
-        <f>IF('K3'!A5="", "",'K3'!H5)</f>
-        <v>2.8055555555555556E-2</v>
+        <f>IF('K3'!A7="", "",'K3'!H7)</f>
+        <v>2.4131944444444445E-2</v>
       </c>
       <c r="C5" s="37">
-        <f>IF('K3'!A5="", "",'K3'!I5)</f>
-        <v>7</v>
+        <f>IF('K3'!A7="", "",'K3'!I7)</f>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -10321,16 +10329,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Eng, Anders Alme</v>
+        <f>IF('K3'!A4="", "",'K3'!A4)</f>
+        <v>Andersen, Erlend</v>
       </c>
       <c r="B6" s="36">
-        <f>IF('K3'!A6="", "",'K3'!H6)</f>
-        <v>2.9236111111111112E-2</v>
+        <f>IF('K3'!A4="", "",'K3'!H4)</f>
+        <v>2.417824074074074E-2</v>
       </c>
       <c r="C6" s="37">
-        <f>IF('K3'!A6="", "",'K3'!I6)</f>
-        <v>8</v>
+        <f>IF('K3'!A4="", "",'K3'!I4)</f>
+        <v>3</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -10345,16 +10353,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Lundby, Jakob</v>
+        <f>IF('K3'!A10="", "",'K3'!A10)</f>
+        <v>Tollehaug, Per Ingvar</v>
       </c>
       <c r="B7" s="36">
-        <f>IF('K3'!A7="", "",'K3'!H7)</f>
-        <v>2.4131944444444445E-2</v>
+        <f>IF('K3'!A10="", "",'K3'!H10)</f>
+        <v>2.5289351851851851E-2</v>
       </c>
       <c r="C7" s="37">
-        <f>IF('K3'!A7="", "",'K3'!I7)</f>
-        <v>2</v>
+        <f>IF('K3'!A10="", "",'K3'!I10)</f>
+        <v>4</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -10393,16 +10401,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
-        <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Thon, Vegard</v>
+        <f>IF('K3'!A12="", "",'K3'!A12)</f>
+        <v>Ragnhildsløkken, Oskar Lunde</v>
       </c>
       <c r="B9" s="36">
-        <f>IF('K3'!A9="", "",'K3'!H9)</f>
-        <v>2.4004629629629629E-2</v>
+        <f>IF('K3'!A12="", "",'K3'!H12)</f>
+        <v>2.5972222222222219E-2</v>
       </c>
       <c r="C9" s="37">
-        <f>IF('K3'!A9="", "",'K3'!I9)</f>
-        <v>1</v>
+        <f>IF('K3'!A12="", "",'K3'!I12)</f>
+        <v>6</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -10417,16 +10425,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
-        <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Tollehaug, Per Ingvar</v>
+        <f>IF('K3'!A5="", "",'K3'!A5)</f>
+        <v>Christensen, Christian Thon</v>
       </c>
       <c r="B10" s="36">
-        <f>IF('K3'!A10="", "",'K3'!H10)</f>
-        <v>2.5289351851851851E-2</v>
+        <f>IF('K3'!A5="", "",'K3'!H5)</f>
+        <v>2.8055555555555556E-2</v>
       </c>
       <c r="C10" s="37">
-        <f>IF('K3'!A10="", "",'K3'!I10)</f>
-        <v>4</v>
+        <f>IF('K3'!A5="", "",'K3'!I5)</f>
+        <v>7</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -10439,7 +10447,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
         <v>Ulsrud, Herman Byfuglien</v>
@@ -10465,16 +10473,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
-        <f>IF('K3'!A12="", "",'K3'!A12)</f>
-        <v>Ragnhildsløkken, Oskar Lunde</v>
+        <f>IF('K3'!A6="", "",'K3'!A6)</f>
+        <v>Eng, Anders Alme</v>
       </c>
       <c r="B12" s="36">
-        <f>IF('K3'!A12="", "",'K3'!H12)</f>
-        <v>2.5972222222222219E-2</v>
+        <f>IF('K3'!A6="", "",'K3'!H6)</f>
+        <v>2.9236111111111112E-2</v>
       </c>
       <c r="C12" s="37">
-        <f>IF('K3'!A12="", "",'K3'!I12)</f>
-        <v>6</v>
+        <f>IF('K3'!A6="", "",'K3'!I6)</f>
+        <v>8</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -10487,7 +10495,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K3'!A13="", "",'K3'!A13)</f>
         <v>Dokken, Hans Kristian</v>
@@ -10511,7 +10519,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K3'!A14="", "",'K3'!A14)</f>
         <v/>
@@ -10535,7 +10543,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K3'!A15="", "",'K3'!A15)</f>
         <v/>
@@ -10559,7 +10567,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K3'!A16="", "",'K3'!A16)</f>
         <v/>
@@ -10583,7 +10591,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K3'!A17="", "",'K3'!A17)</f>
         <v/>
@@ -10607,7 +10615,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K3'!A18="", "",'K3'!A18)</f>
         <v/>
@@ -10631,7 +10639,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K3'!A19="", "",'K3'!A19)</f>
         <v/>
@@ -10655,7 +10663,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K3'!A20="", "",'K3'!A20)</f>
         <v/>
@@ -10679,7 +10687,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K3'!A21="", "",'K3'!A21)</f>
         <v/>
@@ -10703,7 +10711,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K3'!A22="", "",'K3'!A22)</f>
         <v/>
@@ -10727,7 +10735,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K3'!A23="", "",'K3'!A23)</f>
         <v/>
@@ -10751,7 +10759,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K3'!A24="", "",'K3'!A24)</f>
         <v/>
@@ -10775,7 +10783,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K3'!A25="", "",'K3'!A25)</f>
         <v/>
@@ -10799,7 +10807,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K3'!A26="", "",'K3'!A26)</f>
         <v/>
@@ -10823,7 +10831,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K3'!A27="", "",'K3'!A27)</f>
         <v/>
@@ -10847,7 +10855,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K3'!A28="", "",'K3'!A28)</f>
         <v/>
@@ -10871,7 +10879,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K3'!A29="", "",'K3'!A29)</f>
         <v/>
@@ -10895,7 +10903,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K3'!A30="", "",'K3'!A30)</f>
         <v/>
@@ -10919,7 +10927,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K3'!A31="", "",'K3'!A31)</f>
         <v/>
@@ -10943,7 +10951,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K3'!A32="", "",'K3'!A32)</f>
         <v/>
@@ -10967,7 +10975,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K3'!A33="", "",'K3'!A33)</f>
         <v/>
@@ -10991,7 +10999,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K3'!A34="", "",'K3'!A34)</f>
         <v/>
@@ -11015,7 +11023,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K3'!A35="", "",'K3'!A35)</f>
         <v/>
@@ -11039,7 +11047,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K3'!A36="", "",'K3'!A36)</f>
         <v/>
@@ -11063,7 +11071,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K3'!A37="", "",'K3'!A37)</f>
         <v/>
@@ -11087,7 +11095,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K3'!A38="", "",'K3'!A38)</f>
         <v/>
@@ -11111,7 +11119,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K3'!A39="", "",'K3'!A39)</f>
         <v/>
@@ -11135,7 +11143,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K3'!A40="", "",'K3'!A40)</f>
         <v/>
@@ -11159,7 +11167,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K3'!A41="", "",'K3'!A41)</f>
         <v/>
@@ -11183,7 +11191,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K3'!A42="", "",'K3'!A42)</f>
         <v/>
@@ -11207,7 +11215,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K3'!A43="", "",'K3'!A43)</f>
         <v/>
@@ -11231,7 +11239,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K3'!A44="", "",'K3'!A44)</f>
         <v/>
@@ -11255,7 +11263,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K3'!A45="", "",'K3'!A45)</f>
         <v/>
@@ -11279,7 +11287,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K3'!A46="", "",'K3'!A46)</f>
         <v/>
@@ -11303,7 +11311,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K3'!A47="", "",'K3'!A47)</f>
         <v/>
@@ -11327,7 +11335,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K3'!A48="", "",'K3'!A48)</f>
         <v/>
@@ -11351,7 +11359,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K3'!A49="", "",'K3'!A49)</f>
         <v/>
@@ -11375,7 +11383,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K3'!A50="", "",'K3'!A50)</f>
         <v/>
@@ -11399,7 +11407,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K3'!A51="", "",'K3'!A51)</f>
         <v/>
@@ -11423,7 +11431,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K3'!A52="", "",'K3'!A52)</f>
         <v/>
@@ -11447,7 +11455,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K3'!A53="", "",'K3'!A53)</f>
         <v/>
@@ -11471,7 +11479,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K3'!A54="", "",'K3'!A54)</f>
         <v/>
@@ -11495,7 +11503,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K3'!A55="", "",'K3'!A55)</f>
         <v/>
@@ -11519,7 +11527,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K3'!A56="", "",'K3'!A56)</f>
         <v/>
@@ -11543,7 +11551,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K3'!A57="", "",'K3'!A57)</f>
         <v/>
@@ -11567,7 +11575,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K3'!A58="", "",'K3'!A58)</f>
         <v/>
@@ -11591,7 +11599,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K3'!A59="", "",'K3'!A59)</f>
         <v/>
@@ -11615,7 +11623,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K3'!A60="", "",'K3'!A60)</f>
         <v/>
@@ -11639,7 +11647,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K3'!A61="", "",'K3'!A61)</f>
         <v/>
@@ -11663,7 +11671,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K3'!A62="", "",'K3'!A62)</f>
         <v/>
@@ -11687,7 +11695,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K3'!A63="", "",'K3'!A63)</f>
         <v/>
@@ -11711,7 +11719,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K3'!A64="", "",'K3'!A64)</f>
         <v/>
@@ -11735,7 +11743,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K3'!A65="", "",'K3'!A65)</f>
         <v/>
@@ -11759,7 +11767,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K3'!A66="", "",'K3'!A66)</f>
         <v/>
@@ -11783,7 +11791,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K3'!A67="", "",'K3'!A67)</f>
         <v/>
@@ -11807,7 +11815,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K3'!A68="", "",'K3'!A68)</f>
         <v/>
@@ -11831,7 +11839,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K3'!A69="", "",'K3'!A69)</f>
         <v/>
@@ -11855,7 +11863,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K3'!A70="", "",'K3'!A70)</f>
         <v/>
@@ -11879,7 +11887,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K3'!A71="", "",'K3'!A71)</f>
         <v/>
@@ -11903,7 +11911,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K3'!A72="", "",'K3'!A72)</f>
         <v/>
@@ -11927,7 +11935,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K3'!A73="", "",'K3'!A73)</f>
         <v/>
@@ -11951,7 +11959,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K3'!A74="", "",'K3'!A74)</f>
         <v/>
@@ -11975,7 +11983,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K3'!A75="", "",'K3'!A75)</f>
         <v/>
@@ -11999,7 +12007,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K3'!A76="", "",'K3'!A76)</f>
         <v/>
@@ -12023,7 +12031,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K3'!A77="", "",'K3'!A77)</f>
         <v/>
@@ -12047,7 +12055,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K3'!A78="", "",'K3'!A78)</f>
         <v/>
@@ -12071,7 +12079,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K3'!A79="", "",'K3'!A79)</f>
         <v/>
@@ -12095,7 +12103,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K3'!A80="", "",'K3'!A80)</f>
         <v/>
@@ -12119,7 +12127,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K3'!A81="", "",'K3'!A81)</f>
         <v/>
@@ -12143,7 +12151,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K3'!A82="", "",'K3'!A82)</f>
         <v/>
@@ -12167,7 +12175,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K3'!A83="", "",'K3'!A83)</f>
         <v/>
@@ -12191,7 +12199,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K3'!A84="", "",'K3'!A84)</f>
         <v/>
@@ -12215,7 +12223,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K3'!A85="", "",'K3'!A85)</f>
         <v/>
@@ -12239,7 +12247,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K3'!A86="", "",'K3'!A86)</f>
         <v/>
@@ -12263,7 +12271,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K3'!A87="", "",'K3'!A87)</f>
         <v/>
@@ -12287,7 +12295,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K3'!A88="", "",'K3'!A88)</f>
         <v/>
@@ -12311,7 +12319,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K3'!A89="", "",'K3'!A89)</f>
         <v/>
@@ -12335,7 +12343,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K3'!A90="", "",'K3'!A90)</f>
         <v/>
@@ -12359,7 +12367,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K3'!A91="", "",'K3'!A91)</f>
         <v/>
@@ -12383,7 +12391,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K3'!A92="", "",'K3'!A92)</f>
         <v/>
@@ -12407,7 +12415,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K3'!A93="", "",'K3'!A93)</f>
         <v/>
@@ -12431,7 +12439,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K3'!A94="", "",'K3'!A94)</f>
         <v/>
@@ -12455,7 +12463,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K3'!A95="", "",'K3'!A95)</f>
         <v/>
@@ -12479,7 +12487,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K3'!A96="", "",'K3'!A96)</f>
         <v/>
@@ -12503,7 +12511,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K3'!A97="", "",'K3'!A97)</f>
         <v/>
@@ -12527,7 +12535,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K3'!A98="", "",'K3'!A98)</f>
         <v/>
@@ -12551,7 +12559,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K3'!A99="", "",'K3'!A99)</f>
         <v/>
@@ -12575,7 +12583,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K3'!A100="", "",'K3'!A100)</f>
         <v/>
@@ -12599,7 +12607,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K3'!A101="", "",'K3'!A101)</f>
         <v/>
@@ -12623,7 +12631,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K3'!A102="", "",'K3'!A102)</f>
         <v/>
@@ -12638,7 +12646,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K3'!A103="", "",'K3'!A103)</f>
         <v/>
@@ -12653,10 +12661,27 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:C12">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -33804,24 +33829,26 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
   </cols>
@@ -33880,16 +33907,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
-        <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
-        <v>Eng, Anders Alme</v>
+        <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
+        <v>Thon, Vegard</v>
       </c>
       <c r="B4" s="41">
-        <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
-        <v>84</v>
+        <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
+        <v>280</v>
       </c>
       <c r="C4" s="37">
-        <f>IF(D1D2D3!A5="", "",D1D2D3!Q5)</f>
-        <v>9</v>
+        <f>IF(D1D2D3!A209="", "",D1D2D3!Q209)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -33926,7 +33953,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
         <v>Evensen, Magnus Moslet</v>
@@ -33952,16 +33979,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
-        <v>Ringli, Martin Jørstad</v>
+        <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
+        <v>Tollehaug, Per Ingvar</v>
       </c>
       <c r="B7" s="41">
-        <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
-        <v>101</v>
+        <f>IF(D1D2D3!A210="", "",D1D2D3!P210)</f>
+        <v>182</v>
       </c>
       <c r="C7" s="37">
-        <f>IF(D1D2D3!A6="", "",D1D2D3!Q6)</f>
-        <v>8</v>
+        <f>IF(D1D2D3!A210="", "",D1D2D3!Q210)</f>
+        <v>3</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -33974,7 +34001,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
         <v>Ragnhildsrud, Ludvig Lunde</v>
@@ -33998,7 +34025,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
         <v/>
@@ -34022,7 +34049,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
         <v/>
@@ -34046,7 +34073,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
         <v/>
@@ -34070,7 +34097,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
         <v/>
@@ -34094,7 +34121,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!A13)</f>
         <v/>
@@ -34118,7 +34145,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF(D1D2D3!A14="", "",D1D2D3!A14)</f>
         <v/>
@@ -34142,7 +34169,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF(D1D2D3!A15="", "",D1D2D3!A15)</f>
         <v/>
@@ -34166,7 +34193,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!A16)</f>
         <v/>
@@ -34190,7 +34217,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!A17)</f>
         <v/>
@@ -34214,7 +34241,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!A18)</f>
         <v/>
@@ -34238,7 +34265,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!A19)</f>
         <v/>
@@ -34262,7 +34289,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF(D1D2D3!A20="", "",D1D2D3!A20)</f>
         <v/>
@@ -34286,7 +34313,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF(D1D2D3!A21="", "",D1D2D3!A21)</f>
         <v/>
@@ -34310,7 +34337,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF(D1D2D3!A22="", "",D1D2D3!A22)</f>
         <v/>
@@ -34334,7 +34361,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF(D1D2D3!A23="", "",D1D2D3!A23)</f>
         <v/>
@@ -34358,7 +34385,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF(D1D2D3!A24="", "",D1D2D3!A24)</f>
         <v/>
@@ -34382,7 +34409,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF(D1D2D3!A25="", "",D1D2D3!A25)</f>
         <v/>
@@ -34406,7 +34433,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF(D1D2D3!A26="", "",D1D2D3!A26)</f>
         <v/>
@@ -34430,7 +34457,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF(D1D2D3!A27="", "",D1D2D3!A27)</f>
         <v/>
@@ -34454,7 +34481,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF(D1D2D3!A28="", "",D1D2D3!A28)</f>
         <v/>
@@ -34478,7 +34505,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF(D1D2D3!A29="", "",D1D2D3!A29)</f>
         <v/>
@@ -34502,7 +34529,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF(D1D2D3!A30="", "",D1D2D3!A30)</f>
         <v/>
@@ -34526,7 +34553,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF(D1D2D3!A31="", "",D1D2D3!A31)</f>
         <v/>
@@ -34550,7 +34577,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF(D1D2D3!A32="", "",D1D2D3!A32)</f>
         <v/>
@@ -34574,7 +34601,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF(D1D2D3!A33="", "",D1D2D3!A33)</f>
         <v/>
@@ -34598,7 +34625,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF(D1D2D3!A34="", "",D1D2D3!A34)</f>
         <v/>
@@ -34622,7 +34649,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF(D1D2D3!A35="", "",D1D2D3!A35)</f>
         <v/>
@@ -34646,7 +34673,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF(D1D2D3!A36="", "",D1D2D3!A36)</f>
         <v/>
@@ -34670,7 +34697,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF(D1D2D3!A37="", "",D1D2D3!A37)</f>
         <v/>
@@ -34694,7 +34721,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF(D1D2D3!A38="", "",D1D2D3!A38)</f>
         <v/>
@@ -34718,7 +34745,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF(D1D2D3!A39="", "",D1D2D3!A39)</f>
         <v/>
@@ -34742,7 +34769,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF(D1D2D3!A40="", "",D1D2D3!A40)</f>
         <v/>
@@ -34766,7 +34793,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF(D1D2D3!A41="", "",D1D2D3!A41)</f>
         <v/>
@@ -34790,7 +34817,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF(D1D2D3!A42="", "",D1D2D3!A42)</f>
         <v/>
@@ -34814,7 +34841,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF(D1D2D3!A43="", "",D1D2D3!A43)</f>
         <v/>
@@ -34838,7 +34865,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF(D1D2D3!A44="", "",D1D2D3!A44)</f>
         <v/>
@@ -34862,7 +34889,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF(D1D2D3!A45="", "",D1D2D3!A45)</f>
         <v/>
@@ -34886,7 +34913,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF(D1D2D3!A46="", "",D1D2D3!A46)</f>
         <v/>
@@ -34910,7 +34937,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF(D1D2D3!A47="", "",D1D2D3!A47)</f>
         <v/>
@@ -34934,7 +34961,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF(D1D2D3!A48="", "",D1D2D3!A48)</f>
         <v/>
@@ -34958,7 +34985,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF(D1D2D3!A49="", "",D1D2D3!A49)</f>
         <v/>
@@ -34982,7 +35009,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF(D1D2D3!A50="", "",D1D2D3!A50)</f>
         <v/>
@@ -35006,7 +35033,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF(D1D2D3!A51="", "",D1D2D3!A51)</f>
         <v/>
@@ -35030,7 +35057,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF(D1D2D3!A52="", "",D1D2D3!A52)</f>
         <v/>
@@ -35054,7 +35081,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF(D1D2D3!A53="", "",D1D2D3!A53)</f>
         <v/>
@@ -35078,7 +35105,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF(D1D2D3!A54="", "",D1D2D3!A54)</f>
         <v/>
@@ -35102,7 +35129,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF(D1D2D3!A55="", "",D1D2D3!A55)</f>
         <v/>
@@ -35126,7 +35153,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF(D1D2D3!A56="", "",D1D2D3!A56)</f>
         <v/>
@@ -35150,7 +35177,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF(D1D2D3!A57="", "",D1D2D3!A57)</f>
         <v/>
@@ -35174,7 +35201,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF(D1D2D3!A58="", "",D1D2D3!A58)</f>
         <v/>
@@ -35198,7 +35225,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF(D1D2D3!A59="", "",D1D2D3!A59)</f>
         <v/>
@@ -35222,7 +35249,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF(D1D2D3!A60="", "",D1D2D3!A60)</f>
         <v/>
@@ -35246,7 +35273,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF(D1D2D3!A61="", "",D1D2D3!A61)</f>
         <v/>
@@ -35270,7 +35297,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF(D1D2D3!A62="", "",D1D2D3!A62)</f>
         <v/>
@@ -35294,7 +35321,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF(D1D2D3!A63="", "",D1D2D3!A63)</f>
         <v/>
@@ -35318,7 +35345,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF(D1D2D3!A64="", "",D1D2D3!A64)</f>
         <v/>
@@ -35342,7 +35369,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF(D1D2D3!A65="", "",D1D2D3!A65)</f>
         <v/>
@@ -35366,7 +35393,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF(D1D2D3!A66="", "",D1D2D3!A66)</f>
         <v/>
@@ -35390,7 +35417,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF(D1D2D3!A67="", "",D1D2D3!A67)</f>
         <v/>
@@ -35414,7 +35441,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF(D1D2D3!A68="", "",D1D2D3!A68)</f>
         <v/>
@@ -35438,7 +35465,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF(D1D2D3!A69="", "",D1D2D3!A69)</f>
         <v/>
@@ -35462,7 +35489,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF(D1D2D3!A70="", "",D1D2D3!A70)</f>
         <v/>
@@ -35486,7 +35513,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF(D1D2D3!A71="", "",D1D2D3!A71)</f>
         <v/>
@@ -35510,7 +35537,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF(D1D2D3!A72="", "",D1D2D3!A72)</f>
         <v/>
@@ -35534,7 +35561,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF(D1D2D3!A73="", "",D1D2D3!A73)</f>
         <v/>
@@ -35558,7 +35585,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF(D1D2D3!A74="", "",D1D2D3!A74)</f>
         <v/>
@@ -35582,7 +35609,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF(D1D2D3!A75="", "",D1D2D3!A75)</f>
         <v/>
@@ -35606,7 +35633,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF(D1D2D3!A76="", "",D1D2D3!A76)</f>
         <v/>
@@ -35630,7 +35657,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF(D1D2D3!A77="", "",D1D2D3!A77)</f>
         <v/>
@@ -35654,7 +35681,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF(D1D2D3!A78="", "",D1D2D3!A78)</f>
         <v/>
@@ -35678,7 +35705,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF(D1D2D3!A79="", "",D1D2D3!A79)</f>
         <v/>
@@ -35702,7 +35729,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF(D1D2D3!A80="", "",D1D2D3!A80)</f>
         <v/>
@@ -35726,7 +35753,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF(D1D2D3!A81="", "",D1D2D3!A81)</f>
         <v/>
@@ -35750,7 +35777,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF(D1D2D3!A82="", "",D1D2D3!A82)</f>
         <v/>
@@ -35774,7 +35801,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF(D1D2D3!A83="", "",D1D2D3!A83)</f>
         <v/>
@@ -35798,7 +35825,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF(D1D2D3!A84="", "",D1D2D3!A84)</f>
         <v/>
@@ -35822,7 +35849,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF(D1D2D3!A85="", "",D1D2D3!A85)</f>
         <v/>
@@ -35846,7 +35873,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF(D1D2D3!A86="", "",D1D2D3!A86)</f>
         <v/>
@@ -35870,7 +35897,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF(D1D2D3!A87="", "",D1D2D3!A87)</f>
         <v/>
@@ -35894,7 +35921,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF(D1D2D3!A88="", "",D1D2D3!A88)</f>
         <v/>
@@ -35918,7 +35945,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF(D1D2D3!A89="", "",D1D2D3!A89)</f>
         <v/>
@@ -35942,7 +35969,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF(D1D2D3!A90="", "",D1D2D3!A90)</f>
         <v/>
@@ -35966,7 +35993,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF(D1D2D3!A91="", "",D1D2D3!A91)</f>
         <v/>
@@ -35990,7 +36017,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF(D1D2D3!A92="", "",D1D2D3!A92)</f>
         <v/>
@@ -36014,7 +36041,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF(D1D2D3!A93="", "",D1D2D3!A93)</f>
         <v/>
@@ -36038,7 +36065,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF(D1D2D3!A94="", "",D1D2D3!A94)</f>
         <v/>
@@ -36062,7 +36089,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF(D1D2D3!A95="", "",D1D2D3!A95)</f>
         <v/>
@@ -36086,7 +36113,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF(D1D2D3!A96="", "",D1D2D3!A96)</f>
         <v/>
@@ -36110,7 +36137,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF(D1D2D3!A97="", "",D1D2D3!A97)</f>
         <v/>
@@ -36134,7 +36161,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF(D1D2D3!A98="", "",D1D2D3!A98)</f>
         <v/>
@@ -36158,7 +36185,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF(D1D2D3!A99="", "",D1D2D3!A99)</f>
         <v/>
@@ -36182,7 +36209,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF(D1D2D3!A100="", "",D1D2D3!A100)</f>
         <v/>
@@ -36206,7 +36233,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF(D1D2D3!A101="", "",D1D2D3!A101)</f>
         <v/>
@@ -36230,7 +36257,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF(D1D2D3!A102="", "",D1D2D3!A102)</f>
         <v/>
@@ -36245,7 +36272,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF(D1D2D3!A103="", "",D1D2D3!A103)</f>
         <v/>
@@ -36289,19 +36316,19 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v>Granvold, Marius</v>
+        <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
+        <v>Christensen, Christian Thon</v>
       </c>
       <c r="B106" s="41">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
-        <v>56</v>
+        <f>IF(D1D2D3!A207="", "",D1D2D3!P207)</f>
+        <v>125</v>
       </c>
       <c r="C106" s="37">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A207="", "",D1D2D3!Q207)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
         <v>Korshavn, Jonathan Heimdal</v>
@@ -36315,7 +36342,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
         <v/>
@@ -36329,7 +36356,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
         <v/>
@@ -36343,7 +36370,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
         <v/>
@@ -36357,7 +36384,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
         <v/>
@@ -36371,7 +36398,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!A112)</f>
         <v/>
@@ -36385,7 +36412,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!A113)</f>
         <v/>
@@ -36399,7 +36426,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="str">
         <f>IF(D1D2D3!A114="", "",D1D2D3!A114)</f>
         <v/>
@@ -36413,7 +36440,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39" t="str">
         <f>IF(D1D2D3!A115="", "",D1D2D3!A115)</f>
         <v/>
@@ -36427,7 +36454,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="str">
         <f>IF(D1D2D3!A116="", "",D1D2D3!A116)</f>
         <v/>
@@ -36441,7 +36468,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="str">
         <f>IF(D1D2D3!A117="", "",D1D2D3!A117)</f>
         <v/>
@@ -36455,7 +36482,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="str">
         <f>IF(D1D2D3!A118="", "",D1D2D3!A118)</f>
         <v/>
@@ -36469,7 +36496,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="str">
         <f>IF(D1D2D3!A119="", "",D1D2D3!A119)</f>
         <v/>
@@ -36483,7 +36510,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="str">
         <f>IF(D1D2D3!A120="", "",D1D2D3!A120)</f>
         <v/>
@@ -36497,7 +36524,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="str">
         <f>IF(D1D2D3!A121="", "",D1D2D3!A121)</f>
         <v/>
@@ -36511,7 +36538,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="str">
         <f>IF(D1D2D3!A122="", "",D1D2D3!A122)</f>
         <v/>
@@ -36525,7 +36552,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39" t="str">
         <f>IF(D1D2D3!A123="", "",D1D2D3!A123)</f>
         <v/>
@@ -36539,7 +36566,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="str">
         <f>IF(D1D2D3!A124="", "",D1D2D3!A124)</f>
         <v/>
@@ -36553,7 +36580,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39" t="str">
         <f>IF(D1D2D3!A125="", "",D1D2D3!A125)</f>
         <v/>
@@ -36567,7 +36594,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="str">
         <f>IF(D1D2D3!A126="", "",D1D2D3!A126)</f>
         <v/>
@@ -36581,7 +36608,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39" t="str">
         <f>IF(D1D2D3!A127="", "",D1D2D3!A127)</f>
         <v/>
@@ -36595,7 +36622,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="str">
         <f>IF(D1D2D3!A128="", "",D1D2D3!A128)</f>
         <v/>
@@ -36609,7 +36636,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39" t="str">
         <f>IF(D1D2D3!A129="", "",D1D2D3!A129)</f>
         <v/>
@@ -36623,7 +36650,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="str">
         <f>IF(D1D2D3!A130="", "",D1D2D3!A130)</f>
         <v/>
@@ -36637,7 +36664,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39" t="str">
         <f>IF(D1D2D3!A131="", "",D1D2D3!A131)</f>
         <v/>
@@ -36651,7 +36678,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="str">
         <f>IF(D1D2D3!A132="", "",D1D2D3!A132)</f>
         <v/>
@@ -36665,7 +36692,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39" t="str">
         <f>IF(D1D2D3!A133="", "",D1D2D3!A133)</f>
         <v/>
@@ -36679,7 +36706,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39" t="str">
         <f>IF(D1D2D3!A134="", "",D1D2D3!A134)</f>
         <v/>
@@ -36693,7 +36720,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39" t="str">
         <f>IF(D1D2D3!A135="", "",D1D2D3!A135)</f>
         <v/>
@@ -36707,7 +36734,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39" t="str">
         <f>IF(D1D2D3!A136="", "",D1D2D3!A136)</f>
         <v/>
@@ -36721,7 +36748,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39" t="str">
         <f>IF(D1D2D3!A137="", "",D1D2D3!A137)</f>
         <v/>
@@ -36735,7 +36762,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39" t="str">
         <f>IF(D1D2D3!A138="", "",D1D2D3!A138)</f>
         <v/>
@@ -36749,7 +36776,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39" t="str">
         <f>IF(D1D2D3!A139="", "",D1D2D3!A139)</f>
         <v/>
@@ -36763,7 +36790,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="str">
         <f>IF(D1D2D3!A140="", "",D1D2D3!A140)</f>
         <v/>
@@ -36777,7 +36804,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39" t="str">
         <f>IF(D1D2D3!A141="", "",D1D2D3!A141)</f>
         <v/>
@@ -36791,7 +36818,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39" t="str">
         <f>IF(D1D2D3!A142="", "",D1D2D3!A142)</f>
         <v/>
@@ -36805,7 +36832,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39" t="str">
         <f>IF(D1D2D3!A143="", "",D1D2D3!A143)</f>
         <v/>
@@ -36819,7 +36846,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39" t="str">
         <f>IF(D1D2D3!A144="", "",D1D2D3!A144)</f>
         <v/>
@@ -36833,7 +36860,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39" t="str">
         <f>IF(D1D2D3!A145="", "",D1D2D3!A145)</f>
         <v/>
@@ -36847,7 +36874,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39" t="str">
         <f>IF(D1D2D3!A146="", "",D1D2D3!A146)</f>
         <v/>
@@ -36861,7 +36888,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39" t="str">
         <f>IF(D1D2D3!A147="", "",D1D2D3!A147)</f>
         <v/>
@@ -36875,7 +36902,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39" t="str">
         <f>IF(D1D2D3!A148="", "",D1D2D3!A148)</f>
         <v/>
@@ -36889,7 +36916,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39" t="str">
         <f>IF(D1D2D3!A149="", "",D1D2D3!A149)</f>
         <v/>
@@ -36903,7 +36930,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39" t="str">
         <f>IF(D1D2D3!A150="", "",D1D2D3!A150)</f>
         <v/>
@@ -36917,7 +36944,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39" t="str">
         <f>IF(D1D2D3!A151="", "",D1D2D3!A151)</f>
         <v/>
@@ -36931,7 +36958,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="str">
         <f>IF(D1D2D3!A152="", "",D1D2D3!A152)</f>
         <v/>
@@ -36945,7 +36972,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="str">
         <f>IF(D1D2D3!A153="", "",D1D2D3!A153)</f>
         <v/>
@@ -36959,7 +36986,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39" t="str">
         <f>IF(D1D2D3!A154="", "",D1D2D3!A154)</f>
         <v/>
@@ -36973,7 +37000,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="str">
         <f>IF(D1D2D3!A155="", "",D1D2D3!A155)</f>
         <v/>
@@ -36987,7 +37014,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39" t="str">
         <f>IF(D1D2D3!A156="", "",D1D2D3!A156)</f>
         <v/>
@@ -37001,7 +37028,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39" t="str">
         <f>IF(D1D2D3!A157="", "",D1D2D3!A157)</f>
         <v/>
@@ -37015,7 +37042,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39" t="str">
         <f>IF(D1D2D3!A158="", "",D1D2D3!A158)</f>
         <v/>
@@ -37029,7 +37056,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39" t="str">
         <f>IF(D1D2D3!A159="", "",D1D2D3!A159)</f>
         <v/>
@@ -37043,7 +37070,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39" t="str">
         <f>IF(D1D2D3!A160="", "",D1D2D3!A160)</f>
         <v/>
@@ -37057,7 +37084,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39" t="str">
         <f>IF(D1D2D3!A161="", "",D1D2D3!A161)</f>
         <v/>
@@ -37071,7 +37098,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39" t="str">
         <f>IF(D1D2D3!A162="", "",D1D2D3!A162)</f>
         <v/>
@@ -37085,7 +37112,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39" t="str">
         <f>IF(D1D2D3!A163="", "",D1D2D3!A163)</f>
         <v/>
@@ -37099,7 +37126,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39" t="str">
         <f>IF(D1D2D3!A164="", "",D1D2D3!A164)</f>
         <v/>
@@ -37113,7 +37140,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39" t="str">
         <f>IF(D1D2D3!A165="", "",D1D2D3!A165)</f>
         <v/>
@@ -37127,7 +37154,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39" t="str">
         <f>IF(D1D2D3!A166="", "",D1D2D3!A166)</f>
         <v/>
@@ -37141,7 +37168,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39" t="str">
         <f>IF(D1D2D3!A167="", "",D1D2D3!A167)</f>
         <v/>
@@ -37155,7 +37182,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39" t="str">
         <f>IF(D1D2D3!A168="", "",D1D2D3!A168)</f>
         <v/>
@@ -37169,7 +37196,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39" t="str">
         <f>IF(D1D2D3!A169="", "",D1D2D3!A169)</f>
         <v/>
@@ -37183,7 +37210,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39" t="str">
         <f>IF(D1D2D3!A170="", "",D1D2D3!A170)</f>
         <v/>
@@ -37197,7 +37224,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39" t="str">
         <f>IF(D1D2D3!A171="", "",D1D2D3!A171)</f>
         <v/>
@@ -37211,7 +37238,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="str">
         <f>IF(D1D2D3!A172="", "",D1D2D3!A172)</f>
         <v/>
@@ -37225,7 +37252,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39" t="str">
         <f>IF(D1D2D3!A173="", "",D1D2D3!A173)</f>
         <v/>
@@ -37239,7 +37266,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="str">
         <f>IF(D1D2D3!A174="", "",D1D2D3!A174)</f>
         <v/>
@@ -37253,7 +37280,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="str">
         <f>IF(D1D2D3!A175="", "",D1D2D3!A175)</f>
         <v/>
@@ -37267,7 +37294,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39" t="str">
         <f>IF(D1D2D3!A176="", "",D1D2D3!A176)</f>
         <v/>
@@ -37281,7 +37308,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39" t="str">
         <f>IF(D1D2D3!A177="", "",D1D2D3!A177)</f>
         <v/>
@@ -37295,7 +37322,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39" t="str">
         <f>IF(D1D2D3!A178="", "",D1D2D3!A178)</f>
         <v/>
@@ -37309,7 +37336,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39" t="str">
         <f>IF(D1D2D3!A179="", "",D1D2D3!A179)</f>
         <v/>
@@ -37323,7 +37350,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39" t="str">
         <f>IF(D1D2D3!A180="", "",D1D2D3!A180)</f>
         <v/>
@@ -37337,7 +37364,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39" t="str">
         <f>IF(D1D2D3!A181="", "",D1D2D3!A181)</f>
         <v/>
@@ -37351,7 +37378,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39" t="str">
         <f>IF(D1D2D3!A182="", "",D1D2D3!A182)</f>
         <v/>
@@ -37365,7 +37392,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39" t="str">
         <f>IF(D1D2D3!A183="", "",D1D2D3!A183)</f>
         <v/>
@@ -37379,7 +37406,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39" t="str">
         <f>IF(D1D2D3!A184="", "",D1D2D3!A184)</f>
         <v/>
@@ -37393,7 +37420,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39" t="str">
         <f>IF(D1D2D3!A185="", "",D1D2D3!A185)</f>
         <v/>
@@ -37407,7 +37434,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39" t="str">
         <f>IF(D1D2D3!A186="", "",D1D2D3!A186)</f>
         <v/>
@@ -37421,7 +37448,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39" t="str">
         <f>IF(D1D2D3!A187="", "",D1D2D3!A187)</f>
         <v/>
@@ -37435,7 +37462,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39" t="str">
         <f>IF(D1D2D3!A188="", "",D1D2D3!A188)</f>
         <v/>
@@ -37449,7 +37476,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39" t="str">
         <f>IF(D1D2D3!A189="", "",D1D2D3!A189)</f>
         <v/>
@@ -37463,7 +37490,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="str">
         <f>IF(D1D2D3!A190="", "",D1D2D3!A190)</f>
         <v/>
@@ -37477,7 +37504,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39" t="str">
         <f>IF(D1D2D3!A191="", "",D1D2D3!A191)</f>
         <v/>
@@ -37491,7 +37518,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39" t="str">
         <f>IF(D1D2D3!A192="", "",D1D2D3!A192)</f>
         <v/>
@@ -37505,7 +37532,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39" t="str">
         <f>IF(D1D2D3!A193="", "",D1D2D3!A193)</f>
         <v/>
@@ -37519,7 +37546,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39" t="str">
         <f>IF(D1D2D3!A194="", "",D1D2D3!A194)</f>
         <v/>
@@ -37533,7 +37560,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39" t="str">
         <f>IF(D1D2D3!A195="", "",D1D2D3!A195)</f>
         <v/>
@@ -37547,7 +37574,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39" t="str">
         <f>IF(D1D2D3!A196="", "",D1D2D3!A196)</f>
         <v/>
@@ -37561,7 +37588,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39" t="str">
         <f>IF(D1D2D3!A197="", "",D1D2D3!A197)</f>
         <v/>
@@ -37575,7 +37602,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39" t="str">
         <f>IF(D1D2D3!A198="", "",D1D2D3!A198)</f>
         <v/>
@@ -37589,7 +37616,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39" t="str">
         <f>IF(D1D2D3!A199="", "",D1D2D3!A199)</f>
         <v/>
@@ -37603,7 +37630,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39" t="str">
         <f>IF(D1D2D3!A200="", "",D1D2D3!A200)</f>
         <v/>
@@ -37617,7 +37644,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39" t="str">
         <f>IF(D1D2D3!A201="", "",D1D2D3!A201)</f>
         <v/>
@@ -37631,7 +37658,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39" t="str">
         <f>IF(D1D2D3!A202="", "",D1D2D3!A202)</f>
         <v/>
@@ -37645,7 +37672,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39" t="str">
         <f>IF(D1D2D3!A203="", "",D1D2D3!A203)</f>
         <v/>
@@ -37659,7 +37686,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
         <v>Evensen, Sindre Østlien</v>
@@ -37673,7 +37700,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
         <v>Koll, Kristoffer</v>
@@ -37689,61 +37716,61 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
-        <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
-        <v>Christensen, Christian Thon</v>
+        <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
+        <v>Sømoen, Brage</v>
       </c>
       <c r="B206" s="41">
-        <f>IF(D1D2D3!A207="", "",D1D2D3!P207)</f>
-        <v>125</v>
+        <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
+        <v>110</v>
       </c>
       <c r="C206" s="37">
-        <f>IF(D1D2D3!A207="", "",D1D2D3!Q207)</f>
-        <v>6</v>
+        <f>IF(D1D2D3!A208="", "",D1D2D3!Q208)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
-        <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
-        <v>Sømoen, Brage</v>
+        <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
+        <v>Ringli, Martin Jørstad</v>
       </c>
       <c r="B207" s="41">
-        <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
-        <v>110</v>
+        <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
+        <v>101</v>
       </c>
       <c r="C207" s="37">
-        <f>IF(D1D2D3!A208="", "",D1D2D3!Q208)</f>
-        <v>7</v>
+        <f>IF(D1D2D3!A6="", "",D1D2D3!Q6)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
-        <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
-        <v>Thon, Vegard</v>
+        <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
+        <v>Eng, Anders Alme</v>
       </c>
       <c r="B208" s="41">
-        <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
-        <v>280</v>
+        <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
+        <v>84</v>
       </c>
       <c r="C208" s="37">
-        <f>IF(D1D2D3!A209="", "",D1D2D3!Q209)</f>
-        <v>1</v>
+        <f>IF(D1D2D3!A5="", "",D1D2D3!Q5)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
-        <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
-        <v>Tollehaug, Per Ingvar</v>
+        <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
+        <v>Granvold, Marius</v>
       </c>
       <c r="B209" s="41">
-        <f>IF(D1D2D3!A210="", "",D1D2D3!P210)</f>
-        <v>182</v>
+        <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
+        <v>56</v>
       </c>
       <c r="C209" s="37">
-        <f>IF(D1D2D3!A210="", "",D1D2D3!Q210)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="39" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!A211)</f>
         <v>Ulsrud, Herman Byfuglien</v>
@@ -37757,7 +37784,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="39" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!A212)</f>
         <v>Ragnhildsløkken, Oskar Lunde</v>
@@ -37771,7 +37798,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="39" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!A213)</f>
         <v>Dokken, Hans Kristian</v>
@@ -37785,7 +37812,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="39" t="str">
         <f>IF(D1D2D3!A214="", "",D1D2D3!A214)</f>
         <v/>
@@ -37799,7 +37826,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="39" t="str">
         <f>IF(D1D2D3!A215="", "",D1D2D3!A215)</f>
         <v/>
@@ -37813,7 +37840,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="39" t="str">
         <f>IF(D1D2D3!A216="", "",D1D2D3!A216)</f>
         <v/>
@@ -37827,7 +37854,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="39" t="str">
         <f>IF(D1D2D3!A217="", "",D1D2D3!A217)</f>
         <v/>
@@ -37841,7 +37868,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="39" t="str">
         <f>IF(D1D2D3!A218="", "",D1D2D3!A218)</f>
         <v/>
@@ -37855,7 +37882,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="39" t="str">
         <f>IF(D1D2D3!A219="", "",D1D2D3!A219)</f>
         <v/>
@@ -37869,7 +37896,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="39" t="str">
         <f>IF(D1D2D3!A220="", "",D1D2D3!A220)</f>
         <v/>
@@ -37883,7 +37910,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="39" t="str">
         <f>IF(D1D2D3!A221="", "",D1D2D3!A221)</f>
         <v/>
@@ -37897,7 +37924,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="39" t="str">
         <f>IF(D1D2D3!A222="", "",D1D2D3!A222)</f>
         <v/>
@@ -37911,7 +37938,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="39" t="str">
         <f>IF(D1D2D3!A223="", "",D1D2D3!A223)</f>
         <v/>
@@ -37925,7 +37952,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="39" t="str">
         <f>IF(D1D2D3!A224="", "",D1D2D3!A224)</f>
         <v/>
@@ -37939,7 +37966,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="39" t="str">
         <f>IF(D1D2D3!A225="", "",D1D2D3!A225)</f>
         <v/>
@@ -37953,7 +37980,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="39" t="str">
         <f>IF(D1D2D3!A226="", "",D1D2D3!A226)</f>
         <v/>
@@ -37967,7 +37994,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="39" t="str">
         <f>IF(D1D2D3!A227="", "",D1D2D3!A227)</f>
         <v/>
@@ -37981,7 +38008,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="39" t="str">
         <f>IF(D1D2D3!A228="", "",D1D2D3!A228)</f>
         <v/>
@@ -37995,7 +38022,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="39" t="str">
         <f>IF(D1D2D3!A229="", "",D1D2D3!A229)</f>
         <v/>
@@ -38009,7 +38036,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="39" t="str">
         <f>IF(D1D2D3!A230="", "",D1D2D3!A230)</f>
         <v/>
@@ -38023,7 +38050,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="39" t="str">
         <f>IF(D1D2D3!A231="", "",D1D2D3!A231)</f>
         <v/>
@@ -38037,7 +38064,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="39" t="str">
         <f>IF(D1D2D3!A232="", "",D1D2D3!A232)</f>
         <v/>
@@ -38051,7 +38078,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="39" t="str">
         <f>IF(D1D2D3!A233="", "",D1D2D3!A233)</f>
         <v/>
@@ -38065,7 +38092,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="39" t="str">
         <f>IF(D1D2D3!A234="", "",D1D2D3!A234)</f>
         <v/>
@@ -38079,7 +38106,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="39" t="str">
         <f>IF(D1D2D3!A235="", "",D1D2D3!A235)</f>
         <v/>
@@ -38093,7 +38120,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="39" t="str">
         <f>IF(D1D2D3!A236="", "",D1D2D3!A236)</f>
         <v/>
@@ -38107,7 +38134,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="39" t="str">
         <f>IF(D1D2D3!A237="", "",D1D2D3!A237)</f>
         <v/>
@@ -38121,7 +38148,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="39" t="str">
         <f>IF(D1D2D3!A238="", "",D1D2D3!A238)</f>
         <v/>
@@ -38135,7 +38162,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="39" t="str">
         <f>IF(D1D2D3!A239="", "",D1D2D3!A239)</f>
         <v/>
@@ -38149,7 +38176,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="39" t="str">
         <f>IF(D1D2D3!A240="", "",D1D2D3!A240)</f>
         <v/>
@@ -38163,7 +38190,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="39" t="str">
         <f>IF(D1D2D3!A241="", "",D1D2D3!A241)</f>
         <v/>
@@ -38177,7 +38204,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="39" t="str">
         <f>IF(D1D2D3!A242="", "",D1D2D3!A242)</f>
         <v/>
@@ -38191,7 +38218,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="39" t="str">
         <f>IF(D1D2D3!A243="", "",D1D2D3!A243)</f>
         <v/>
@@ -38205,7 +38232,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="39" t="str">
         <f>IF(D1D2D3!A244="", "",D1D2D3!A244)</f>
         <v/>
@@ -38219,7 +38246,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="39" t="str">
         <f>IF(D1D2D3!A245="", "",D1D2D3!A245)</f>
         <v/>
@@ -38233,7 +38260,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="39" t="str">
         <f>IF(D1D2D3!A246="", "",D1D2D3!A246)</f>
         <v/>
@@ -38247,7 +38274,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="39" t="str">
         <f>IF(D1D2D3!A247="", "",D1D2D3!A247)</f>
         <v/>
@@ -38261,7 +38288,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="39" t="str">
         <f>IF(D1D2D3!A248="", "",D1D2D3!A248)</f>
         <v/>
@@ -38275,7 +38302,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="39" t="str">
         <f>IF(D1D2D3!A249="", "",D1D2D3!A249)</f>
         <v/>
@@ -38289,7 +38316,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="39" t="str">
         <f>IF(D1D2D3!A250="", "",D1D2D3!A250)</f>
         <v/>
@@ -38303,7 +38330,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="39" t="str">
         <f>IF(D1D2D3!A251="", "",D1D2D3!A251)</f>
         <v/>
@@ -38317,7 +38344,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="39" t="str">
         <f>IF(D1D2D3!A252="", "",D1D2D3!A252)</f>
         <v/>
@@ -38331,7 +38358,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="39" t="str">
         <f>IF(D1D2D3!A253="", "",D1D2D3!A253)</f>
         <v/>
@@ -38345,7 +38372,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="39" t="str">
         <f>IF(D1D2D3!A254="", "",D1D2D3!A254)</f>
         <v/>
@@ -38359,7 +38386,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="39" t="str">
         <f>IF(D1D2D3!A255="", "",D1D2D3!A255)</f>
         <v/>
@@ -38373,7 +38400,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="39" t="str">
         <f>IF(D1D2D3!A256="", "",D1D2D3!A256)</f>
         <v/>
@@ -38387,7 +38414,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="39" t="str">
         <f>IF(D1D2D3!A257="", "",D1D2D3!A257)</f>
         <v/>
@@ -38401,7 +38428,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="39" t="str">
         <f>IF(D1D2D3!A258="", "",D1D2D3!A258)</f>
         <v/>
@@ -38415,7 +38442,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="39" t="str">
         <f>IF(D1D2D3!A259="", "",D1D2D3!A259)</f>
         <v/>
@@ -38429,7 +38456,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="39" t="str">
         <f>IF(D1D2D3!A260="", "",D1D2D3!A260)</f>
         <v/>
@@ -38443,7 +38470,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="39" t="str">
         <f>IF(D1D2D3!A261="", "",D1D2D3!A261)</f>
         <v/>
@@ -38457,7 +38484,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="39" t="str">
         <f>IF(D1D2D3!A262="", "",D1D2D3!A262)</f>
         <v/>
@@ -38471,7 +38498,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="39" t="str">
         <f>IF(D1D2D3!A263="", "",D1D2D3!A263)</f>
         <v/>
@@ -38485,7 +38512,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="39" t="str">
         <f>IF(D1D2D3!A264="", "",D1D2D3!A264)</f>
         <v/>
@@ -38499,7 +38526,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="39" t="str">
         <f>IF(D1D2D3!A265="", "",D1D2D3!A265)</f>
         <v/>
@@ -38513,7 +38540,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="39" t="str">
         <f>IF(D1D2D3!A266="", "",D1D2D3!A266)</f>
         <v/>
@@ -38527,7 +38554,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="39" t="str">
         <f>IF(D1D2D3!A267="", "",D1D2D3!A267)</f>
         <v/>
@@ -38541,7 +38568,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="39" t="str">
         <f>IF(D1D2D3!A268="", "",D1D2D3!A268)</f>
         <v/>
@@ -38555,7 +38582,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="39" t="str">
         <f>IF(D1D2D3!A269="", "",D1D2D3!A269)</f>
         <v/>
@@ -38569,7 +38596,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="39" t="str">
         <f>IF(D1D2D3!A270="", "",D1D2D3!A270)</f>
         <v/>
@@ -38583,7 +38610,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="39" t="str">
         <f>IF(D1D2D3!A271="", "",D1D2D3!A271)</f>
         <v/>
@@ -38597,7 +38624,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="39" t="str">
         <f>IF(D1D2D3!A272="", "",D1D2D3!A272)</f>
         <v/>
@@ -38611,7 +38638,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="39" t="str">
         <f>IF(D1D2D3!A273="", "",D1D2D3!A273)</f>
         <v/>
@@ -38625,7 +38652,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="39" t="str">
         <f>IF(D1D2D3!A274="", "",D1D2D3!A274)</f>
         <v/>
@@ -38639,7 +38666,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="39" t="str">
         <f>IF(D1D2D3!A275="", "",D1D2D3!A275)</f>
         <v/>
@@ -38653,7 +38680,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="39" t="str">
         <f>IF(D1D2D3!A276="", "",D1D2D3!A276)</f>
         <v/>
@@ -38667,7 +38694,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="39" t="str">
         <f>IF(D1D2D3!A277="", "",D1D2D3!A277)</f>
         <v/>
@@ -38681,7 +38708,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="39" t="str">
         <f>IF(D1D2D3!A278="", "",D1D2D3!A278)</f>
         <v/>
@@ -38695,7 +38722,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="39" t="str">
         <f>IF(D1D2D3!A279="", "",D1D2D3!A279)</f>
         <v/>
@@ -38709,7 +38736,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="39" t="str">
         <f>IF(D1D2D3!A280="", "",D1D2D3!A280)</f>
         <v/>
@@ -38723,7 +38750,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="39" t="str">
         <f>IF(D1D2D3!A281="", "",D1D2D3!A281)</f>
         <v/>
@@ -38737,7 +38764,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="39" t="str">
         <f>IF(D1D2D3!A282="", "",D1D2D3!A282)</f>
         <v/>
@@ -38751,7 +38778,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="39" t="str">
         <f>IF(D1D2D3!A283="", "",D1D2D3!A283)</f>
         <v/>
@@ -38765,7 +38792,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="39" t="str">
         <f>IF(D1D2D3!A284="", "",D1D2D3!A284)</f>
         <v/>
@@ -38779,7 +38806,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="39" t="str">
         <f>IF(D1D2D3!A285="", "",D1D2D3!A285)</f>
         <v/>
@@ -38793,7 +38820,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="39" t="str">
         <f>IF(D1D2D3!A286="", "",D1D2D3!A286)</f>
         <v/>
@@ -38807,7 +38834,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="39" t="str">
         <f>IF(D1D2D3!A287="", "",D1D2D3!A287)</f>
         <v/>
@@ -38821,7 +38848,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="39" t="str">
         <f>IF(D1D2D3!A288="", "",D1D2D3!A288)</f>
         <v/>
@@ -38835,7 +38862,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="39" t="str">
         <f>IF(D1D2D3!A289="", "",D1D2D3!A289)</f>
         <v/>
@@ -38849,7 +38876,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="39" t="str">
         <f>IF(D1D2D3!A290="", "",D1D2D3!A290)</f>
         <v/>
@@ -38863,7 +38890,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="39" t="str">
         <f>IF(D1D2D3!A291="", "",D1D2D3!A291)</f>
         <v/>
@@ -38877,7 +38904,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="39" t="str">
         <f>IF(D1D2D3!A292="", "",D1D2D3!A292)</f>
         <v/>
@@ -38891,7 +38918,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="39" t="str">
         <f>IF(D1D2D3!A293="", "",D1D2D3!A293)</f>
         <v/>
@@ -38905,7 +38932,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="39" t="str">
         <f>IF(D1D2D3!A294="", "",D1D2D3!A294)</f>
         <v/>
@@ -38919,7 +38946,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="39" t="str">
         <f>IF(D1D2D3!A295="", "",D1D2D3!A295)</f>
         <v/>
@@ -38933,7 +38960,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="39" t="str">
         <f>IF(D1D2D3!A296="", "",D1D2D3!A296)</f>
         <v/>
@@ -38947,7 +38974,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="39" t="str">
         <f>IF(D1D2D3!A297="", "",D1D2D3!A297)</f>
         <v/>
@@ -38961,7 +38988,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="39" t="str">
         <f>IF(D1D2D3!A298="", "",D1D2D3!A298)</f>
         <v/>
@@ -38975,7 +39002,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="39" t="str">
         <f>IF(D1D2D3!A299="", "",D1D2D3!A299)</f>
         <v/>
@@ -38989,7 +39016,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="39" t="str">
         <f>IF(D1D2D3!A300="", "",D1D2D3!A300)</f>
         <v/>
@@ -39003,7 +39030,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="39" t="str">
         <f>IF(D1D2D3!A301="", "",D1D2D3!A301)</f>
         <v/>
@@ -39017,7 +39044,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="39" t="str">
         <f>IF(D1D2D3!A302="", "",D1D2D3!A302)</f>
         <v/>
@@ -39031,7 +39058,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="39" t="str">
         <f>IF(D1D2D3!A303="", "",D1D2D3!A303)</f>
         <v/>
@@ -39045,7 +39072,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
         <v>Gigstad-Bergene, Tobias</v>
@@ -39060,14 +39087,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C303">
-    <sortState ref="A4:C303">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:C209">
       <sortCondition ref="C3:C303"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -39842,8 +39884,9 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -39852,7 +39895,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -44187,8 +44230,9 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -48580,8 +48624,9 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -51039,8 +51084,9 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -53500,18 +53546,19 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53575,7 +53622,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Evensen, Magnus Moslet</v>
@@ -53623,7 +53670,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Koll, Kristoffer</v>
@@ -53647,7 +53694,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Evensen, Sindre Østlien</v>
@@ -53671,7 +53718,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Ragnhildsrud, Ludvig Lunde</v>
@@ -53695,7 +53742,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v/>
@@ -53719,7 +53766,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v/>
@@ -53743,7 +53790,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
         <v/>
@@ -53767,7 +53814,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
         <v/>
@@ -53791,7 +53838,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v/>
@@ -53815,7 +53862,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
         <v/>
@@ -53839,7 +53886,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
         <v/>
@@ -53863,7 +53910,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
         <v/>
@@ -53887,7 +53934,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
         <v/>
@@ -53911,7 +53958,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
         <v/>
@@ -53935,7 +53982,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v/>
@@ -53959,7 +54006,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K1'!A20="", "",'K1'!A20)</f>
         <v/>
@@ -53983,7 +54030,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K1'!A21="", "",'K1'!A21)</f>
         <v/>
@@ -54007,7 +54054,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K1'!A22="", "",'K1'!A22)</f>
         <v/>
@@ -54031,7 +54078,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K1'!A23="", "",'K1'!A23)</f>
         <v/>
@@ -54055,7 +54102,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K1'!A24="", "",'K1'!A24)</f>
         <v/>
@@ -54079,7 +54126,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K1'!A25="", "",'K1'!A25)</f>
         <v/>
@@ -54103,7 +54150,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K1'!A26="", "",'K1'!A26)</f>
         <v/>
@@ -54127,7 +54174,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K1'!A27="", "",'K1'!A27)</f>
         <v/>
@@ -54151,7 +54198,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K1'!A28="", "",'K1'!A28)</f>
         <v/>
@@ -54175,7 +54222,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K1'!A29="", "",'K1'!A29)</f>
         <v/>
@@ -54199,7 +54246,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K1'!A30="", "",'K1'!A30)</f>
         <v/>
@@ -54223,7 +54270,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K1'!A31="", "",'K1'!A31)</f>
         <v/>
@@ -54247,7 +54294,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K1'!A32="", "",'K1'!A32)</f>
         <v/>
@@ -54271,7 +54318,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K1'!A33="", "",'K1'!A33)</f>
         <v/>
@@ -54295,7 +54342,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K1'!A34="", "",'K1'!A34)</f>
         <v/>
@@ -54319,7 +54366,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K1'!A35="", "",'K1'!A35)</f>
         <v/>
@@ -54343,7 +54390,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K1'!A36="", "",'K1'!A36)</f>
         <v/>
@@ -54367,7 +54414,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K1'!A37="", "",'K1'!A37)</f>
         <v/>
@@ -54391,7 +54438,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K1'!A38="", "",'K1'!A38)</f>
         <v/>
@@ -54415,7 +54462,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K1'!A39="", "",'K1'!A39)</f>
         <v/>
@@ -54439,7 +54486,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K1'!A40="", "",'K1'!A40)</f>
         <v/>
@@ -54463,7 +54510,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K1'!A41="", "",'K1'!A41)</f>
         <v/>
@@ -54487,7 +54534,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K1'!A42="", "",'K1'!A42)</f>
         <v/>
@@ -54511,7 +54558,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K1'!A43="", "",'K1'!A43)</f>
         <v/>
@@ -54535,7 +54582,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K1'!A44="", "",'K1'!A44)</f>
         <v/>
@@ -54559,7 +54606,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K1'!A45="", "",'K1'!A45)</f>
         <v/>
@@ -54583,7 +54630,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K1'!A46="", "",'K1'!A46)</f>
         <v/>
@@ -54607,7 +54654,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K1'!A47="", "",'K1'!A47)</f>
         <v/>
@@ -54631,7 +54678,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K1'!A48="", "",'K1'!A48)</f>
         <v/>
@@ -54655,7 +54702,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K1'!A49="", "",'K1'!A49)</f>
         <v/>
@@ -54679,7 +54726,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K1'!A50="", "",'K1'!A50)</f>
         <v/>
@@ -54703,7 +54750,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K1'!A51="", "",'K1'!A51)</f>
         <v/>
@@ -54727,7 +54774,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K1'!A52="", "",'K1'!A52)</f>
         <v/>
@@ -54751,7 +54798,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K1'!A53="", "",'K1'!A53)</f>
         <v/>
@@ -54775,7 +54822,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K1'!A54="", "",'K1'!A54)</f>
         <v/>
@@ -54799,7 +54846,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K1'!A55="", "",'K1'!A55)</f>
         <v/>
@@ -54823,7 +54870,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K1'!A56="", "",'K1'!A56)</f>
         <v/>
@@ -54847,7 +54894,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K1'!A57="", "",'K1'!A57)</f>
         <v/>
@@ -54871,7 +54918,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K1'!A58="", "",'K1'!A58)</f>
         <v/>
@@ -54895,7 +54942,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K1'!A59="", "",'K1'!A59)</f>
         <v/>
@@ -54919,7 +54966,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K1'!A60="", "",'K1'!A60)</f>
         <v/>
@@ -54943,7 +54990,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K1'!A61="", "",'K1'!A61)</f>
         <v/>
@@ -54967,7 +55014,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K1'!A62="", "",'K1'!A62)</f>
         <v/>
@@ -54991,7 +55038,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K1'!A63="", "",'K1'!A63)</f>
         <v/>
@@ -55015,7 +55062,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K1'!A64="", "",'K1'!A64)</f>
         <v/>
@@ -55039,7 +55086,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K1'!A65="", "",'K1'!A65)</f>
         <v/>
@@ -55063,7 +55110,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K1'!A66="", "",'K1'!A66)</f>
         <v/>
@@ -55087,7 +55134,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K1'!A67="", "",'K1'!A67)</f>
         <v/>
@@ -55111,7 +55158,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K1'!A68="", "",'K1'!A68)</f>
         <v/>
@@ -55135,7 +55182,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K1'!A69="", "",'K1'!A69)</f>
         <v/>
@@ -55159,7 +55206,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K1'!A70="", "",'K1'!A70)</f>
         <v/>
@@ -55183,7 +55230,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K1'!A71="", "",'K1'!A71)</f>
         <v/>
@@ -55207,7 +55254,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K1'!A72="", "",'K1'!A72)</f>
         <v/>
@@ -55231,7 +55278,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K1'!A73="", "",'K1'!A73)</f>
         <v/>
@@ -55255,7 +55302,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K1'!A74="", "",'K1'!A74)</f>
         <v/>
@@ -55279,7 +55326,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K1'!A75="", "",'K1'!A75)</f>
         <v/>
@@ -55303,7 +55350,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K1'!A76="", "",'K1'!A76)</f>
         <v/>
@@ -55327,7 +55374,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K1'!A77="", "",'K1'!A77)</f>
         <v/>
@@ -55351,7 +55398,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K1'!A78="", "",'K1'!A78)</f>
         <v/>
@@ -55375,7 +55422,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K1'!A79="", "",'K1'!A79)</f>
         <v/>
@@ -55399,7 +55446,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K1'!A80="", "",'K1'!A80)</f>
         <v/>
@@ -55423,7 +55470,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K1'!A81="", "",'K1'!A81)</f>
         <v/>
@@ -55447,7 +55494,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K1'!A82="", "",'K1'!A82)</f>
         <v/>
@@ -55471,7 +55518,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K1'!A83="", "",'K1'!A83)</f>
         <v/>
@@ -55495,7 +55542,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K1'!A84="", "",'K1'!A84)</f>
         <v/>
@@ -55519,7 +55566,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K1'!A85="", "",'K1'!A85)</f>
         <v/>
@@ -55543,7 +55590,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K1'!A86="", "",'K1'!A86)</f>
         <v/>
@@ -55567,7 +55614,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K1'!A87="", "",'K1'!A87)</f>
         <v/>
@@ -55591,7 +55638,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K1'!A88="", "",'K1'!A88)</f>
         <v/>
@@ -55615,7 +55662,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K1'!A89="", "",'K1'!A89)</f>
         <v/>
@@ -55639,7 +55686,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K1'!A90="", "",'K1'!A90)</f>
         <v/>
@@ -55663,7 +55710,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K1'!A91="", "",'K1'!A91)</f>
         <v/>
@@ -55687,7 +55734,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K1'!A92="", "",'K1'!A92)</f>
         <v/>
@@ -55711,7 +55758,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K1'!A93="", "",'K1'!A93)</f>
         <v/>
@@ -55735,7 +55782,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K1'!A94="", "",'K1'!A94)</f>
         <v/>
@@ -55759,7 +55806,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K1'!A95="", "",'K1'!A95)</f>
         <v/>
@@ -55783,7 +55830,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K1'!A96="", "",'K1'!A96)</f>
         <v/>
@@ -55807,7 +55854,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K1'!A97="", "",'K1'!A97)</f>
         <v/>
@@ -55831,7 +55878,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K1'!A98="", "",'K1'!A98)</f>
         <v/>
@@ -55855,7 +55902,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K1'!A99="", "",'K1'!A99)</f>
         <v/>
@@ -55879,7 +55926,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K1'!A100="", "",'K1'!A100)</f>
         <v/>
@@ -55903,7 +55950,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K1'!A101="", "",'K1'!A101)</f>
         <v/>
@@ -55927,7 +55974,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K1'!A102="", "",'K1'!A102)</f>
         <v/>
@@ -55942,7 +55989,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K1'!A103="", "",'K1'!A103)</f>
         <v/>
@@ -55957,10 +56004,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -58418,8 +58472,9 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -60879,18 +60934,19 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet9" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60980,16 +61036,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
-        <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Gigstad-Bergene, Tobias</v>
+        <f>IF('K2'!A7="", "",'K2'!A7)</f>
+        <v>Ringli, Martin Jørstad</v>
       </c>
       <c r="B5" s="36">
-        <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v>3.1851851851851853E-2</v>
+        <f>IF('K2'!A7="", "",'K2'!H7)</f>
+        <v>2.6620370370370374E-2</v>
       </c>
       <c r="C5" s="37">
-        <f>IF('K2'!A5="", "",'K2'!I5)</f>
-        <v>3</v>
+        <f>IF('K2'!A7="", "",'K2'!I7)</f>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -61004,16 +61060,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Korshavn, Jonathan Heimdal</v>
+        <f>IF('K2'!A5="", "",'K2'!A5)</f>
+        <v>Gigstad-Bergene, Tobias</v>
       </c>
       <c r="B6" s="36">
-        <f>IF('K2'!A6="", "",'K2'!H6)</f>
-        <v>3.7083333333333336E-2</v>
+        <f>IF('K2'!A5="", "",'K2'!H5)</f>
+        <v>3.1851851851851853E-2</v>
       </c>
       <c r="C6" s="37">
-        <f>IF('K2'!A6="", "",'K2'!I6)</f>
-        <v>4</v>
+        <f>IF('K2'!A5="", "",'K2'!I5)</f>
+        <v>3</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -61028,16 +61084,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Ringli, Martin Jørstad</v>
+        <f>IF('K2'!A6="", "",'K2'!A6)</f>
+        <v>Korshavn, Jonathan Heimdal</v>
       </c>
       <c r="B7" s="36">
-        <f>IF('K2'!A7="", "",'K2'!H7)</f>
-        <v>2.6620370370370374E-2</v>
+        <f>IF('K2'!A6="", "",'K2'!H6)</f>
+        <v>3.7083333333333336E-2</v>
       </c>
       <c r="C7" s="37">
-        <f>IF('K2'!A7="", "",'K2'!I7)</f>
-        <v>2</v>
+        <f>IF('K2'!A6="", "",'K2'!I6)</f>
+        <v>4</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -61050,7 +61106,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
         <v/>
@@ -61074,7 +61130,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
         <v/>
@@ -61098,7 +61154,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
         <v/>
@@ -61122,7 +61178,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
         <v/>
@@ -61146,7 +61202,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
         <v/>
@@ -61170,7 +61226,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K2'!A13="", "",'K2'!A13)</f>
         <v/>
@@ -61194,7 +61250,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K2'!A14="", "",'K2'!A14)</f>
         <v/>
@@ -61218,7 +61274,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K2'!A15="", "",'K2'!A15)</f>
         <v/>
@@ -61242,7 +61298,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K2'!A16="", "",'K2'!A16)</f>
         <v/>
@@ -61266,7 +61322,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K2'!A17="", "",'K2'!A17)</f>
         <v/>
@@ -61290,7 +61346,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K2'!A18="", "",'K2'!A18)</f>
         <v/>
@@ -61314,7 +61370,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K2'!A19="", "",'K2'!A19)</f>
         <v/>
@@ -61338,7 +61394,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K2'!A20="", "",'K2'!A20)</f>
         <v/>
@@ -61362,7 +61418,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K2'!A21="", "",'K2'!A21)</f>
         <v/>
@@ -61386,7 +61442,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K2'!A22="", "",'K2'!A22)</f>
         <v/>
@@ -61410,7 +61466,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K2'!A23="", "",'K2'!A23)</f>
         <v/>
@@ -61434,7 +61490,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K2'!A24="", "",'K2'!A24)</f>
         <v/>
@@ -61458,7 +61514,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K2'!A25="", "",'K2'!A25)</f>
         <v/>
@@ -61482,7 +61538,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K2'!A26="", "",'K2'!A26)</f>
         <v/>
@@ -61506,7 +61562,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K2'!A27="", "",'K2'!A27)</f>
         <v/>
@@ -61530,7 +61586,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K2'!A28="", "",'K2'!A28)</f>
         <v/>
@@ -61554,7 +61610,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K2'!A29="", "",'K2'!A29)</f>
         <v/>
@@ -61578,7 +61634,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K2'!A30="", "",'K2'!A30)</f>
         <v/>
@@ -61602,7 +61658,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K2'!A31="", "",'K2'!A31)</f>
         <v/>
@@ -61626,7 +61682,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K2'!A32="", "",'K2'!A32)</f>
         <v/>
@@ -61650,7 +61706,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K2'!A33="", "",'K2'!A33)</f>
         <v/>
@@ -61674,7 +61730,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K2'!A34="", "",'K2'!A34)</f>
         <v/>
@@ -61698,7 +61754,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K2'!A35="", "",'K2'!A35)</f>
         <v/>
@@ -61722,7 +61778,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K2'!A36="", "",'K2'!A36)</f>
         <v/>
@@ -61746,7 +61802,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K2'!A37="", "",'K2'!A37)</f>
         <v/>
@@ -61770,7 +61826,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K2'!A38="", "",'K2'!A38)</f>
         <v/>
@@ -61794,7 +61850,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K2'!A39="", "",'K2'!A39)</f>
         <v/>
@@ -61818,7 +61874,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K2'!A40="", "",'K2'!A40)</f>
         <v/>
@@ -61842,7 +61898,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K2'!A41="", "",'K2'!A41)</f>
         <v/>
@@ -61866,7 +61922,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K2'!A42="", "",'K2'!A42)</f>
         <v/>
@@ -61890,7 +61946,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K2'!A43="", "",'K2'!A43)</f>
         <v/>
@@ -61914,7 +61970,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K2'!A44="", "",'K2'!A44)</f>
         <v/>
@@ -61938,7 +61994,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K2'!A45="", "",'K2'!A45)</f>
         <v/>
@@ -61962,7 +62018,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K2'!A46="", "",'K2'!A46)</f>
         <v/>
@@ -61986,7 +62042,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K2'!A47="", "",'K2'!A47)</f>
         <v/>
@@ -62010,7 +62066,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K2'!A48="", "",'K2'!A48)</f>
         <v/>
@@ -62034,7 +62090,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K2'!A49="", "",'K2'!A49)</f>
         <v/>
@@ -62058,7 +62114,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K2'!A50="", "",'K2'!A50)</f>
         <v/>
@@ -62082,7 +62138,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K2'!A51="", "",'K2'!A51)</f>
         <v/>
@@ -62106,7 +62162,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K2'!A52="", "",'K2'!A52)</f>
         <v/>
@@ -62130,7 +62186,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K2'!A53="", "",'K2'!A53)</f>
         <v/>
@@ -62154,7 +62210,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K2'!A54="", "",'K2'!A54)</f>
         <v/>
@@ -62178,7 +62234,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K2'!A55="", "",'K2'!A55)</f>
         <v/>
@@ -62202,7 +62258,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K2'!A56="", "",'K2'!A56)</f>
         <v/>
@@ -62226,7 +62282,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K2'!A57="", "",'K2'!A57)</f>
         <v/>
@@ -62250,7 +62306,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K2'!A58="", "",'K2'!A58)</f>
         <v/>
@@ -62274,7 +62330,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K2'!A59="", "",'K2'!A59)</f>
         <v/>
@@ -62298,7 +62354,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K2'!A60="", "",'K2'!A60)</f>
         <v/>
@@ -62322,7 +62378,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K2'!A61="", "",'K2'!A61)</f>
         <v/>
@@ -62346,7 +62402,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K2'!A62="", "",'K2'!A62)</f>
         <v/>
@@ -62370,7 +62426,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K2'!A63="", "",'K2'!A63)</f>
         <v/>
@@ -62394,7 +62450,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K2'!A64="", "",'K2'!A64)</f>
         <v/>
@@ -62418,7 +62474,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K2'!A65="", "",'K2'!A65)</f>
         <v/>
@@ -62442,7 +62498,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K2'!A66="", "",'K2'!A66)</f>
         <v/>
@@ -62466,7 +62522,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K2'!A67="", "",'K2'!A67)</f>
         <v/>
@@ -62490,7 +62546,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K2'!A68="", "",'K2'!A68)</f>
         <v/>
@@ -62514,7 +62570,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K2'!A69="", "",'K2'!A69)</f>
         <v/>
@@ -62538,7 +62594,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K2'!A70="", "",'K2'!A70)</f>
         <v/>
@@ -62562,7 +62618,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K2'!A71="", "",'K2'!A71)</f>
         <v/>
@@ -62586,7 +62642,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K2'!A72="", "",'K2'!A72)</f>
         <v/>
@@ -62610,7 +62666,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K2'!A73="", "",'K2'!A73)</f>
         <v/>
@@ -62634,7 +62690,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K2'!A74="", "",'K2'!A74)</f>
         <v/>
@@ -62658,7 +62714,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K2'!A75="", "",'K2'!A75)</f>
         <v/>
@@ -62682,7 +62738,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K2'!A76="", "",'K2'!A76)</f>
         <v/>
@@ -62706,7 +62762,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K2'!A77="", "",'K2'!A77)</f>
         <v/>
@@ -62730,7 +62786,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K2'!A78="", "",'K2'!A78)</f>
         <v/>
@@ -62754,7 +62810,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K2'!A79="", "",'K2'!A79)</f>
         <v/>
@@ -62778,7 +62834,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K2'!A80="", "",'K2'!A80)</f>
         <v/>
@@ -62802,7 +62858,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K2'!A81="", "",'K2'!A81)</f>
         <v/>
@@ -62826,7 +62882,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K2'!A82="", "",'K2'!A82)</f>
         <v/>
@@ -62850,7 +62906,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K2'!A83="", "",'K2'!A83)</f>
         <v/>
@@ -62874,7 +62930,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K2'!A84="", "",'K2'!A84)</f>
         <v/>
@@ -62898,7 +62954,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K2'!A85="", "",'K2'!A85)</f>
         <v/>
@@ -62922,7 +62978,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K2'!A86="", "",'K2'!A86)</f>
         <v/>
@@ -62946,7 +63002,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K2'!A87="", "",'K2'!A87)</f>
         <v/>
@@ -62970,7 +63026,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K2'!A88="", "",'K2'!A88)</f>
         <v/>
@@ -62994,7 +63050,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K2'!A89="", "",'K2'!A89)</f>
         <v/>
@@ -63018,7 +63074,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K2'!A90="", "",'K2'!A90)</f>
         <v/>
@@ -63042,7 +63098,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K2'!A91="", "",'K2'!A91)</f>
         <v/>
@@ -63066,7 +63122,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K2'!A92="", "",'K2'!A92)</f>
         <v/>
@@ -63090,7 +63146,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K2'!A93="", "",'K2'!A93)</f>
         <v/>
@@ -63114,7 +63170,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K2'!A94="", "",'K2'!A94)</f>
         <v/>
@@ -63138,7 +63194,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K2'!A95="", "",'K2'!A95)</f>
         <v/>
@@ -63162,7 +63218,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K2'!A96="", "",'K2'!A96)</f>
         <v/>
@@ -63186,7 +63242,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K2'!A97="", "",'K2'!A97)</f>
         <v/>
@@ -63210,7 +63266,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K2'!A98="", "",'K2'!A98)</f>
         <v/>
@@ -63234,7 +63290,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K2'!A99="", "",'K2'!A99)</f>
         <v/>
@@ -63258,7 +63314,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K2'!A100="", "",'K2'!A100)</f>
         <v/>
@@ -63282,7 +63338,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K2'!A101="", "",'K2'!A101)</f>
         <v/>
@@ -63306,7 +63362,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K2'!A102="", "",'K2'!A102)</f>
         <v/>
@@ -63321,7 +63377,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K2'!A103="", "",'K2'!A103)</f>
         <v/>
@@ -63336,9 +63392,19 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A4:C7">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>